--- a/archive/2019年度　統計学B/配布資料/統計学B_02_配布資料.xlsx
+++ b/archive/2019年度　統計学B/配布資料/統計学B_02_配布資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yohkawano/Library/CloudStorage/GoogleDrive-ykawano@reitaku-u.ac.jp/My Drive/Classroom/2023 2nd Semester/23-2-Reitaku-Stats-B/archive/2019年度　統計学B/配布資料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5EBD24-E40D-2C40-BE4A-8E749A6D6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB15634-1518-0D4C-925D-E72C6B81A074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-28220" windowWidth="44000" windowHeight="26880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="統計学B #02" sheetId="21" r:id="rId1"/>
@@ -2723,13 +2723,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2741,10 +2750,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2752,9 +2809,6 @@
     </xf>
     <xf numFmtId="179" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2785,60 +2839,6 @@
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9121,7 +9121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DX37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -9169,12 +9169,12 @@
     <row r="2" spans="1:128" ht="25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
@@ -9197,19 +9197,19 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
       <c r="AD2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BA2" s="50" t="s">
+      <c r="BA2" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
       <c r="BD2" s="1" t="s">
         <v>99</v>
       </c>
@@ -9220,38 +9220,38 @@
         <v>102</v>
       </c>
       <c r="DA2" s="19"/>
-      <c r="DC2" s="73" t="s">
+      <c r="DC2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="DD2" s="74"/>
-      <c r="DE2" s="74"/>
-      <c r="DF2" s="74"/>
-      <c r="DG2" s="74"/>
-      <c r="DH2" s="74"/>
-      <c r="DI2" s="74"/>
-      <c r="DJ2" s="74"/>
-      <c r="DK2" s="74"/>
-      <c r="DL2" s="74"/>
-      <c r="DM2" s="74"/>
-      <c r="DN2" s="74"/>
-      <c r="DO2" s="74"/>
-      <c r="DP2" s="74"/>
-      <c r="DQ2" s="74"/>
-      <c r="DR2" s="74"/>
-      <c r="DS2" s="74"/>
-      <c r="DT2" s="74"/>
-      <c r="DU2" s="74"/>
-      <c r="DV2" s="74"/>
-      <c r="DW2" s="74"/>
-      <c r="DX2" s="75"/>
+      <c r="DD2" s="44"/>
+      <c r="DE2" s="44"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
+      <c r="DM2" s="44"/>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
+      <c r="DX2" s="45"/>
     </row>
     <row r="3" spans="1:128" ht="25" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="77"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
@@ -9274,27 +9274,27 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="51"/>
       <c r="AJ3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AK3" s="37"/>
       <c r="AL3" s="37"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="45"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="54"/>
       <c r="AP3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="48"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="51"/>
       <c r="BJ3" s="1" t="s">
         <v>154</v>
       </c>
@@ -9304,36 +9304,36 @@
         <v>115</v>
       </c>
       <c r="DA3" s="19"/>
-      <c r="DC3" s="78"/>
-      <c r="DD3" s="79"/>
-      <c r="DE3" s="79"/>
-      <c r="DF3" s="79"/>
-      <c r="DG3" s="79"/>
-      <c r="DH3" s="79"/>
-      <c r="DI3" s="79"/>
-      <c r="DJ3" s="79"/>
-      <c r="DK3" s="79"/>
-      <c r="DL3" s="79"/>
-      <c r="DM3" s="79"/>
-      <c r="DN3" s="79"/>
-      <c r="DO3" s="79"/>
-      <c r="DP3" s="79"/>
-      <c r="DQ3" s="79"/>
-      <c r="DR3" s="79"/>
-      <c r="DS3" s="79"/>
-      <c r="DT3" s="79"/>
-      <c r="DU3" s="79"/>
-      <c r="DV3" s="79"/>
-      <c r="DW3" s="79"/>
-      <c r="DX3" s="80"/>
+      <c r="DC3" s="46"/>
+      <c r="DD3" s="47"/>
+      <c r="DE3" s="47"/>
+      <c r="DF3" s="47"/>
+      <c r="DG3" s="47"/>
+      <c r="DH3" s="47"/>
+      <c r="DI3" s="47"/>
+      <c r="DJ3" s="47"/>
+      <c r="DK3" s="47"/>
+      <c r="DL3" s="47"/>
+      <c r="DM3" s="47"/>
+      <c r="DN3" s="47"/>
+      <c r="DO3" s="47"/>
+      <c r="DP3" s="47"/>
+      <c r="DQ3" s="47"/>
+      <c r="DR3" s="47"/>
+      <c r="DS3" s="47"/>
+      <c r="DT3" s="47"/>
+      <c r="DU3" s="47"/>
+      <c r="DV3" s="47"/>
+      <c r="DW3" s="47"/>
+      <c r="DX3" s="48"/>
     </row>
     <row r="4" spans="1:128" ht="25" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="24" t="s">
         <v>40</v>
       </c>
@@ -9356,30 +9356,30 @@
       <c r="X4" s="26"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="51"/>
       <c r="AJ4" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AK4" s="37"/>
       <c r="AL4" s="37"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="45"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="54"/>
       <c r="AR4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AT4" s="81"/>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="45"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="48"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="54"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="51"/>
       <c r="BJ4" s="1" t="s">
         <v>156</v>
       </c>
@@ -9440,34 +9440,34 @@
       <c r="BJ5" s="37"/>
       <c r="BK5" s="37"/>
       <c r="BL5" s="37"/>
-      <c r="CD5" s="72" t="s">
+      <c r="CD5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="CE5" s="72"/>
-      <c r="CF5" s="72"/>
-      <c r="CG5" s="72"/>
-      <c r="CH5" s="72"/>
-      <c r="CI5" s="72" t="s">
+      <c r="CE5" s="55"/>
+      <c r="CF5" s="55"/>
+      <c r="CG5" s="55"/>
+      <c r="CH5" s="55"/>
+      <c r="CI5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="CJ5" s="72"/>
-      <c r="CK5" s="72"/>
-      <c r="CL5" s="72"/>
-      <c r="CM5" s="72"/>
-      <c r="CN5" s="72" t="s">
+      <c r="CJ5" s="55"/>
+      <c r="CK5" s="55"/>
+      <c r="CL5" s="55"/>
+      <c r="CM5" s="55"/>
+      <c r="CN5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="CO5" s="72"/>
-      <c r="CP5" s="72"/>
-      <c r="CQ5" s="72"/>
-      <c r="CR5" s="72"/>
-      <c r="CS5" s="72" t="s">
+      <c r="CO5" s="55"/>
+      <c r="CP5" s="55"/>
+      <c r="CQ5" s="55"/>
+      <c r="CR5" s="55"/>
+      <c r="CS5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="CT5" s="72"/>
-      <c r="CU5" s="72"/>
-      <c r="CV5" s="72"/>
-      <c r="CW5" s="72"/>
+      <c r="CT5" s="55"/>
+      <c r="CU5" s="55"/>
+      <c r="CV5" s="55"/>
+      <c r="CW5" s="55"/>
       <c r="DA5" s="19"/>
       <c r="DC5" s="14"/>
       <c r="DE5" s="1" t="s">
@@ -9479,11 +9479,11 @@
       <c r="DX5" s="5"/>
     </row>
     <row r="6" spans="1:128" ht="25" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="17" t="s">
         <v>43</v>
       </c>
@@ -9491,46 +9491,46 @@
       <c r="X6" s="19"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="48"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="51"/>
       <c r="BJ6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CD6" s="71" t="s">
+      <c r="CD6" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="CE6" s="71"/>
-      <c r="CF6" s="71"/>
-      <c r="CG6" s="71"/>
-      <c r="CH6" s="71"/>
-      <c r="CI6" s="71" t="s">
+      <c r="CE6" s="57"/>
+      <c r="CF6" s="57"/>
+      <c r="CG6" s="57"/>
+      <c r="CH6" s="57"/>
+      <c r="CI6" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="CJ6" s="71"/>
-      <c r="CK6" s="71"/>
-      <c r="CL6" s="71"/>
-      <c r="CM6" s="71"/>
-      <c r="CN6" s="71"/>
-      <c r="CO6" s="71"/>
-      <c r="CP6" s="71"/>
-      <c r="CQ6" s="71"/>
-      <c r="CR6" s="71"/>
-      <c r="CS6" s="71"/>
-      <c r="CT6" s="71"/>
-      <c r="CU6" s="71"/>
-      <c r="CV6" s="71"/>
-      <c r="CW6" s="71"/>
+      <c r="CJ6" s="57"/>
+      <c r="CK6" s="57"/>
+      <c r="CL6" s="57"/>
+      <c r="CM6" s="57"/>
+      <c r="CN6" s="57"/>
+      <c r="CO6" s="57"/>
+      <c r="CP6" s="57"/>
+      <c r="CQ6" s="57"/>
+      <c r="CR6" s="57"/>
+      <c r="CS6" s="57"/>
+      <c r="CT6" s="57"/>
+      <c r="CU6" s="57"/>
+      <c r="CV6" s="57"/>
+      <c r="CW6" s="57"/>
       <c r="DA6" s="19"/>
       <c r="DC6" s="28"/>
       <c r="DD6" s="6"/>
@@ -9562,47 +9562,47 @@
     <row r="7" spans="1:128" ht="25" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="48"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="51"/>
       <c r="BJ7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CD7" s="53">
+      <c r="CD7" s="60">
         <v>1</v>
       </c>
-      <c r="CE7" s="53"/>
-      <c r="CF7" s="53"/>
-      <c r="CG7" s="53"/>
-      <c r="CH7" s="53"/>
-      <c r="CI7" s="70">
+      <c r="CE7" s="60"/>
+      <c r="CF7" s="60"/>
+      <c r="CG7" s="60"/>
+      <c r="CH7" s="60"/>
+      <c r="CI7" s="61">
         <v>184</v>
       </c>
-      <c r="CJ7" s="70"/>
-      <c r="CK7" s="70"/>
-      <c r="CL7" s="70"/>
-      <c r="CM7" s="70"/>
-      <c r="CN7" s="64"/>
-      <c r="CO7" s="65"/>
-      <c r="CP7" s="65"/>
-      <c r="CQ7" s="65"/>
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="61"/>
+      <c r="CM7" s="61"/>
+      <c r="CN7" s="62"/>
+      <c r="CO7" s="63"/>
+      <c r="CP7" s="63"/>
+      <c r="CQ7" s="63"/>
       <c r="CR7" s="40"/>
-      <c r="CS7" s="66"/>
-      <c r="CT7" s="67"/>
-      <c r="CU7" s="67"/>
-      <c r="CV7" s="67"/>
+      <c r="CS7" s="64"/>
+      <c r="CT7" s="65"/>
+      <c r="CU7" s="65"/>
+      <c r="CV7" s="65"/>
       <c r="CW7" s="40"/>
       <c r="DA7" s="19"/>
       <c r="DC7" s="18"/>
@@ -9633,57 +9633,57 @@
     <row r="8" spans="1:128" ht="25" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
-      <c r="AA8" s="50" t="s">
+      <c r="AA8" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
       <c r="AD8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BO8" s="46"/>
-      <c r="BP8" s="47"/>
-      <c r="BQ8" s="47"/>
-      <c r="BR8" s="47"/>
-      <c r="BS8" s="48"/>
-      <c r="CD8" s="53">
+      <c r="BO8" s="49"/>
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="51"/>
+      <c r="CD8" s="60">
         <v>2</v>
       </c>
-      <c r="CE8" s="53"/>
-      <c r="CF8" s="53"/>
-      <c r="CG8" s="53"/>
-      <c r="CH8" s="53"/>
-      <c r="CI8" s="70">
+      <c r="CE8" s="60"/>
+      <c r="CF8" s="60"/>
+      <c r="CG8" s="60"/>
+      <c r="CH8" s="60"/>
+      <c r="CI8" s="61">
         <v>174</v>
       </c>
-      <c r="CJ8" s="70"/>
-      <c r="CK8" s="70"/>
-      <c r="CL8" s="70"/>
-      <c r="CM8" s="70"/>
-      <c r="CN8" s="64"/>
-      <c r="CO8" s="65"/>
-      <c r="CP8" s="65"/>
-      <c r="CQ8" s="65"/>
+      <c r="CJ8" s="61"/>
+      <c r="CK8" s="61"/>
+      <c r="CL8" s="61"/>
+      <c r="CM8" s="61"/>
+      <c r="CN8" s="62"/>
+      <c r="CO8" s="63"/>
+      <c r="CP8" s="63"/>
+      <c r="CQ8" s="63"/>
       <c r="CR8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="CS8" s="66"/>
-      <c r="CT8" s="67"/>
-      <c r="CU8" s="67"/>
-      <c r="CV8" s="67"/>
+      <c r="CS8" s="64"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
       <c r="CW8" s="40"/>
       <c r="DA8" s="19"/>
       <c r="DC8" s="4"/>
@@ -9706,37 +9706,37 @@
       <c r="BK9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BN9" s="46"/>
-      <c r="BO9" s="47"/>
-      <c r="BP9" s="47"/>
-      <c r="BQ9" s="47"/>
-      <c r="BR9" s="48"/>
+      <c r="BN9" s="49"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="51"/>
       <c r="BS9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CD9" s="53">
+      <c r="CD9" s="60">
         <v>3</v>
       </c>
-      <c r="CE9" s="53"/>
-      <c r="CF9" s="53"/>
-      <c r="CG9" s="53"/>
-      <c r="CH9" s="53"/>
-      <c r="CI9" s="70">
+      <c r="CE9" s="60"/>
+      <c r="CF9" s="60"/>
+      <c r="CG9" s="60"/>
+      <c r="CH9" s="60"/>
+      <c r="CI9" s="61">
         <v>160</v>
       </c>
-      <c r="CJ9" s="70"/>
-      <c r="CK9" s="70"/>
-      <c r="CL9" s="70"/>
-      <c r="CM9" s="70"/>
-      <c r="CN9" s="64"/>
-      <c r="CO9" s="65"/>
-      <c r="CP9" s="65"/>
-      <c r="CQ9" s="65"/>
+      <c r="CJ9" s="61"/>
+      <c r="CK9" s="61"/>
+      <c r="CL9" s="61"/>
+      <c r="CM9" s="61"/>
+      <c r="CN9" s="62"/>
+      <c r="CO9" s="63"/>
+      <c r="CP9" s="63"/>
+      <c r="CQ9" s="63"/>
       <c r="CR9" s="40"/>
-      <c r="CS9" s="66"/>
-      <c r="CT9" s="67"/>
-      <c r="CU9" s="67"/>
-      <c r="CV9" s="67"/>
+      <c r="CS9" s="64"/>
+      <c r="CT9" s="65"/>
+      <c r="CU9" s="65"/>
+      <c r="CV9" s="65"/>
       <c r="CW9" s="40" t="s">
         <v>110</v>
       </c>
@@ -9777,29 +9777,29 @@
         <v>140</v>
       </c>
       <c r="AG10" s="37"/>
-      <c r="CD10" s="53">
+      <c r="CD10" s="60">
         <v>4</v>
       </c>
-      <c r="CE10" s="53"/>
-      <c r="CF10" s="53"/>
-      <c r="CG10" s="53"/>
-      <c r="CH10" s="53"/>
-      <c r="CI10" s="70">
+      <c r="CE10" s="60"/>
+      <c r="CF10" s="60"/>
+      <c r="CG10" s="60"/>
+      <c r="CH10" s="60"/>
+      <c r="CI10" s="61">
         <v>178</v>
       </c>
-      <c r="CJ10" s="70"/>
-      <c r="CK10" s="70"/>
-      <c r="CL10" s="70"/>
-      <c r="CM10" s="70"/>
-      <c r="CN10" s="64"/>
-      <c r="CO10" s="65"/>
-      <c r="CP10" s="65"/>
-      <c r="CQ10" s="65"/>
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="62"/>
+      <c r="CO10" s="63"/>
+      <c r="CP10" s="63"/>
+      <c r="CQ10" s="63"/>
       <c r="CR10" s="40"/>
-      <c r="CS10" s="66"/>
-      <c r="CT10" s="67"/>
-      <c r="CU10" s="67"/>
-      <c r="CV10" s="67"/>
+      <c r="CS10" s="64"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
+      <c r="CV10" s="65"/>
       <c r="CW10" s="40"/>
       <c r="DA10" s="19"/>
       <c r="DC10" s="4"/>
@@ -9836,11 +9836,11 @@
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
       <c r="AZ11" s="35"/>
-      <c r="BA11" s="50" t="s">
+      <c r="BA11" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
       <c r="BD11" s="1" t="s">
         <v>167</v>
       </c>
@@ -9862,29 +9862,29 @@
       <c r="BY11" s="35"/>
       <c r="BZ11" s="35"/>
       <c r="CC11" s="21"/>
-      <c r="CD11" s="53">
+      <c r="CD11" s="60">
         <v>5</v>
       </c>
-      <c r="CE11" s="53"/>
-      <c r="CF11" s="53"/>
-      <c r="CG11" s="53"/>
-      <c r="CH11" s="53"/>
-      <c r="CI11" s="70">
+      <c r="CE11" s="60"/>
+      <c r="CF11" s="60"/>
+      <c r="CG11" s="60"/>
+      <c r="CH11" s="60"/>
+      <c r="CI11" s="61">
         <v>167</v>
       </c>
-      <c r="CJ11" s="70"/>
-      <c r="CK11" s="70"/>
-      <c r="CL11" s="70"/>
-      <c r="CM11" s="70"/>
-      <c r="CN11" s="64"/>
-      <c r="CO11" s="65"/>
-      <c r="CP11" s="65"/>
-      <c r="CQ11" s="65"/>
+      <c r="CJ11" s="61"/>
+      <c r="CK11" s="61"/>
+      <c r="CL11" s="61"/>
+      <c r="CM11" s="61"/>
+      <c r="CN11" s="62"/>
+      <c r="CO11" s="63"/>
+      <c r="CP11" s="63"/>
+      <c r="CQ11" s="63"/>
       <c r="CR11" s="40"/>
-      <c r="CS11" s="66"/>
-      <c r="CT11" s="67"/>
-      <c r="CU11" s="67"/>
-      <c r="CV11" s="67"/>
+      <c r="CS11" s="64"/>
+      <c r="CT11" s="65"/>
+      <c r="CU11" s="65"/>
+      <c r="CV11" s="65"/>
       <c r="CW11" s="40"/>
       <c r="CX11" s="21"/>
       <c r="CY11" s="21"/>
@@ -9910,31 +9910,31 @@
       <c r="BE12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CD12" s="53">
+      <c r="CD12" s="60">
         <v>6</v>
       </c>
-      <c r="CE12" s="53"/>
-      <c r="CF12" s="53"/>
-      <c r="CG12" s="53"/>
-      <c r="CH12" s="53"/>
-      <c r="CI12" s="70">
+      <c r="CE12" s="60"/>
+      <c r="CF12" s="60"/>
+      <c r="CG12" s="60"/>
+      <c r="CH12" s="60"/>
+      <c r="CI12" s="61">
         <v>179</v>
       </c>
-      <c r="CJ12" s="70"/>
-      <c r="CK12" s="70"/>
-      <c r="CL12" s="70"/>
-      <c r="CM12" s="70"/>
-      <c r="CN12" s="64"/>
-      <c r="CO12" s="65"/>
-      <c r="CP12" s="65"/>
-      <c r="CQ12" s="65"/>
+      <c r="CJ12" s="61"/>
+      <c r="CK12" s="61"/>
+      <c r="CL12" s="61"/>
+      <c r="CM12" s="61"/>
+      <c r="CN12" s="62"/>
+      <c r="CO12" s="63"/>
+      <c r="CP12" s="63"/>
+      <c r="CQ12" s="63"/>
       <c r="CR12" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="CS12" s="66"/>
-      <c r="CT12" s="67"/>
-      <c r="CU12" s="67"/>
-      <c r="CV12" s="67"/>
+      <c r="CS12" s="64"/>
+      <c r="CT12" s="65"/>
+      <c r="CU12" s="65"/>
+      <c r="CV12" s="65"/>
       <c r="CW12" s="40"/>
       <c r="DA12" s="19"/>
       <c r="DC12" s="4"/>
@@ -9966,29 +9966,29 @@
       <c r="BG13" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="CD13" s="53">
+      <c r="CD13" s="60">
         <v>7</v>
       </c>
-      <c r="CE13" s="53"/>
-      <c r="CF13" s="53"/>
-      <c r="CG13" s="53"/>
-      <c r="CH13" s="53"/>
-      <c r="CI13" s="70">
+      <c r="CE13" s="60"/>
+      <c r="CF13" s="60"/>
+      <c r="CG13" s="60"/>
+      <c r="CH13" s="60"/>
+      <c r="CI13" s="61">
         <v>181</v>
       </c>
-      <c r="CJ13" s="70"/>
-      <c r="CK13" s="70"/>
-      <c r="CL13" s="70"/>
-      <c r="CM13" s="70"/>
-      <c r="CN13" s="64"/>
-      <c r="CO13" s="65"/>
-      <c r="CP13" s="65"/>
-      <c r="CQ13" s="65"/>
+      <c r="CJ13" s="61"/>
+      <c r="CK13" s="61"/>
+      <c r="CL13" s="61"/>
+      <c r="CM13" s="61"/>
+      <c r="CN13" s="62"/>
+      <c r="CO13" s="63"/>
+      <c r="CP13" s="63"/>
+      <c r="CQ13" s="63"/>
       <c r="CR13" s="40"/>
-      <c r="CS13" s="66"/>
-      <c r="CT13" s="67"/>
-      <c r="CU13" s="67"/>
-      <c r="CV13" s="67"/>
+      <c r="CS13" s="64"/>
+      <c r="CT13" s="65"/>
+      <c r="CU13" s="65"/>
+      <c r="CV13" s="65"/>
       <c r="CW13" s="40"/>
       <c r="DA13" s="19"/>
       <c r="DB13" s="27"/>
@@ -10018,29 +10018,29 @@
       <c r="BG14" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="CD14" s="53">
+      <c r="CD14" s="60">
         <v>8</v>
       </c>
-      <c r="CE14" s="53"/>
-      <c r="CF14" s="53"/>
-      <c r="CG14" s="53"/>
-      <c r="CH14" s="53"/>
-      <c r="CI14" s="70">
+      <c r="CE14" s="60"/>
+      <c r="CF14" s="60"/>
+      <c r="CG14" s="60"/>
+      <c r="CH14" s="60"/>
+      <c r="CI14" s="61">
         <v>167</v>
       </c>
-      <c r="CJ14" s="70"/>
-      <c r="CK14" s="70"/>
-      <c r="CL14" s="70"/>
-      <c r="CM14" s="70"/>
-      <c r="CN14" s="64"/>
-      <c r="CO14" s="65"/>
-      <c r="CP14" s="65"/>
-      <c r="CQ14" s="65"/>
+      <c r="CJ14" s="61"/>
+      <c r="CK14" s="61"/>
+      <c r="CL14" s="61"/>
+      <c r="CM14" s="61"/>
+      <c r="CN14" s="62"/>
+      <c r="CO14" s="63"/>
+      <c r="CP14" s="63"/>
+      <c r="CQ14" s="63"/>
       <c r="CR14" s="40"/>
-      <c r="CS14" s="66"/>
-      <c r="CT14" s="67"/>
-      <c r="CU14" s="67"/>
-      <c r="CV14" s="67"/>
+      <c r="CS14" s="64"/>
+      <c r="CT14" s="65"/>
+      <c r="CU14" s="65"/>
+      <c r="CV14" s="65"/>
       <c r="CW14" s="40"/>
       <c r="DA14" s="19"/>
       <c r="DB14" s="12"/>
@@ -10070,29 +10070,29 @@
       <c r="BG15" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="CD15" s="53">
+      <c r="CD15" s="60">
         <v>9</v>
       </c>
-      <c r="CE15" s="53"/>
-      <c r="CF15" s="53"/>
-      <c r="CG15" s="53"/>
-      <c r="CH15" s="53"/>
-      <c r="CI15" s="70">
+      <c r="CE15" s="60"/>
+      <c r="CF15" s="60"/>
+      <c r="CG15" s="60"/>
+      <c r="CH15" s="60"/>
+      <c r="CI15" s="61">
         <v>160</v>
       </c>
-      <c r="CJ15" s="70"/>
-      <c r="CK15" s="70"/>
-      <c r="CL15" s="70"/>
-      <c r="CM15" s="70"/>
-      <c r="CN15" s="64"/>
-      <c r="CO15" s="65"/>
-      <c r="CP15" s="65"/>
-      <c r="CQ15" s="65"/>
+      <c r="CJ15" s="61"/>
+      <c r="CK15" s="61"/>
+      <c r="CL15" s="61"/>
+      <c r="CM15" s="61"/>
+      <c r="CN15" s="62"/>
+      <c r="CO15" s="63"/>
+      <c r="CP15" s="63"/>
+      <c r="CQ15" s="63"/>
       <c r="CR15" s="40"/>
-      <c r="CS15" s="66"/>
-      <c r="CT15" s="67"/>
-      <c r="CU15" s="67"/>
-      <c r="CV15" s="67"/>
+      <c r="CS15" s="64"/>
+      <c r="CT15" s="65"/>
+      <c r="CU15" s="65"/>
+      <c r="CV15" s="65"/>
       <c r="CW15" s="40" t="s">
         <v>111</v>
       </c>
@@ -10124,31 +10124,31 @@
       <c r="BG16" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="CD16" s="53">
+      <c r="CD16" s="60">
         <v>10</v>
       </c>
-      <c r="CE16" s="53"/>
-      <c r="CF16" s="53"/>
-      <c r="CG16" s="53"/>
-      <c r="CH16" s="53"/>
-      <c r="CI16" s="70">
+      <c r="CE16" s="60"/>
+      <c r="CF16" s="60"/>
+      <c r="CG16" s="60"/>
+      <c r="CH16" s="60"/>
+      <c r="CI16" s="61">
         <v>168</v>
       </c>
-      <c r="CJ16" s="70"/>
-      <c r="CK16" s="70"/>
-      <c r="CL16" s="70"/>
-      <c r="CM16" s="70"/>
-      <c r="CN16" s="64"/>
-      <c r="CO16" s="65"/>
-      <c r="CP16" s="65"/>
-      <c r="CQ16" s="65"/>
+      <c r="CJ16" s="61"/>
+      <c r="CK16" s="61"/>
+      <c r="CL16" s="61"/>
+      <c r="CM16" s="61"/>
+      <c r="CN16" s="62"/>
+      <c r="CO16" s="63"/>
+      <c r="CP16" s="63"/>
+      <c r="CQ16" s="63"/>
       <c r="CR16" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="CS16" s="66"/>
-      <c r="CT16" s="67"/>
-      <c r="CU16" s="67"/>
-      <c r="CV16" s="67"/>
+      <c r="CS16" s="64"/>
+      <c r="CT16" s="65"/>
+      <c r="CU16" s="65"/>
+      <c r="CV16" s="65"/>
       <c r="CW16" s="40"/>
       <c r="DA16" s="19"/>
       <c r="DB16" s="12"/>
@@ -10178,9 +10178,9 @@
       <c r="DX16" s="15"/>
     </row>
     <row r="17" spans="1:128" ht="25" customHeight="1" thickBot="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="BF17" s="1" t="s">
@@ -10189,29 +10189,29 @@
       <c r="BG17" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="CD17" s="53">
+      <c r="CD17" s="60">
         <v>11</v>
       </c>
-      <c r="CE17" s="53"/>
-      <c r="CF17" s="53"/>
-      <c r="CG17" s="53"/>
-      <c r="CH17" s="53"/>
-      <c r="CI17" s="70">
+      <c r="CE17" s="60"/>
+      <c r="CF17" s="60"/>
+      <c r="CG17" s="60"/>
+      <c r="CH17" s="60"/>
+      <c r="CI17" s="61">
         <v>175</v>
       </c>
-      <c r="CJ17" s="70"/>
-      <c r="CK17" s="70"/>
-      <c r="CL17" s="70"/>
-      <c r="CM17" s="70"/>
-      <c r="CN17" s="64"/>
-      <c r="CO17" s="65"/>
-      <c r="CP17" s="65"/>
-      <c r="CQ17" s="65"/>
+      <c r="CJ17" s="61"/>
+      <c r="CK17" s="61"/>
+      <c r="CL17" s="61"/>
+      <c r="CM17" s="61"/>
+      <c r="CN17" s="62"/>
+      <c r="CO17" s="63"/>
+      <c r="CP17" s="63"/>
+      <c r="CQ17" s="63"/>
       <c r="CR17" s="40"/>
-      <c r="CS17" s="66"/>
-      <c r="CT17" s="67"/>
-      <c r="CU17" s="67"/>
-      <c r="CV17" s="67"/>
+      <c r="CS17" s="64"/>
+      <c r="CT17" s="65"/>
+      <c r="CU17" s="65"/>
+      <c r="CV17" s="65"/>
       <c r="CW17" s="40"/>
       <c r="DA17" s="19"/>
       <c r="DB17" s="12"/>
@@ -10245,40 +10245,40 @@
       <c r="B18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
-      <c r="AA18" s="50" t="s">
+      <c r="AA18" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="1" t="s">
         <v>142</v>
       </c>
       <c r="BG18" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="CD18" s="53">
+      <c r="CD18" s="60">
         <v>12</v>
       </c>
-      <c r="CE18" s="53"/>
-      <c r="CF18" s="53"/>
-      <c r="CG18" s="53"/>
-      <c r="CH18" s="53"/>
-      <c r="CI18" s="70">
+      <c r="CE18" s="60"/>
+      <c r="CF18" s="60"/>
+      <c r="CG18" s="60"/>
+      <c r="CH18" s="60"/>
+      <c r="CI18" s="61">
         <v>167</v>
       </c>
-      <c r="CJ18" s="70"/>
-      <c r="CK18" s="70"/>
-      <c r="CL18" s="70"/>
-      <c r="CM18" s="70"/>
-      <c r="CN18" s="64"/>
-      <c r="CO18" s="65"/>
-      <c r="CP18" s="65"/>
-      <c r="CQ18" s="65"/>
+      <c r="CJ18" s="61"/>
+      <c r="CK18" s="61"/>
+      <c r="CL18" s="61"/>
+      <c r="CM18" s="61"/>
+      <c r="CN18" s="62"/>
+      <c r="CO18" s="63"/>
+      <c r="CP18" s="63"/>
+      <c r="CQ18" s="63"/>
       <c r="CR18" s="40"/>
-      <c r="CS18" s="66"/>
-      <c r="CT18" s="67"/>
-      <c r="CU18" s="67"/>
-      <c r="CV18" s="67"/>
+      <c r="CS18" s="64"/>
+      <c r="CT18" s="65"/>
+      <c r="CU18" s="65"/>
+      <c r="CV18" s="65"/>
       <c r="CW18" s="40"/>
       <c r="DA18" s="19"/>
       <c r="DC18" s="29"/>
@@ -10307,55 +10307,55 @@
     <row r="19" spans="1:128" ht="25" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="17" t="s">
         <v>49</v>
       </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="48"/>
+      <c r="AE19" s="49"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="51"/>
       <c r="AJ19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AL19" s="46"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="48"/>
+      <c r="AL19" s="49"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="51"/>
       <c r="BG19" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="CD19" s="53">
+      <c r="CD19" s="60">
         <v>13</v>
       </c>
-      <c r="CE19" s="53"/>
-      <c r="CF19" s="53"/>
-      <c r="CG19" s="53"/>
-      <c r="CH19" s="53"/>
-      <c r="CI19" s="70">
+      <c r="CE19" s="60"/>
+      <c r="CF19" s="60"/>
+      <c r="CG19" s="60"/>
+      <c r="CH19" s="60"/>
+      <c r="CI19" s="61">
         <v>184</v>
       </c>
-      <c r="CJ19" s="70"/>
-      <c r="CK19" s="70"/>
-      <c r="CL19" s="70"/>
-      <c r="CM19" s="70"/>
-      <c r="CN19" s="64"/>
-      <c r="CO19" s="65"/>
-      <c r="CP19" s="65"/>
-      <c r="CQ19" s="65"/>
+      <c r="CJ19" s="61"/>
+      <c r="CK19" s="61"/>
+      <c r="CL19" s="61"/>
+      <c r="CM19" s="61"/>
+      <c r="CN19" s="62"/>
+      <c r="CO19" s="63"/>
+      <c r="CP19" s="63"/>
+      <c r="CQ19" s="63"/>
       <c r="CR19" s="40"/>
-      <c r="CS19" s="66"/>
-      <c r="CT19" s="67"/>
-      <c r="CU19" s="67"/>
-      <c r="CV19" s="67"/>
+      <c r="CS19" s="64"/>
+      <c r="CT19" s="65"/>
+      <c r="CU19" s="65"/>
+      <c r="CV19" s="65"/>
       <c r="CW19" s="40"/>
       <c r="DA19" s="19"/>
       <c r="DB19" s="12"/>
@@ -10411,29 +10411,29 @@
       <c r="CA20" s="21"/>
       <c r="CB20" s="21"/>
       <c r="CC20" s="21"/>
-      <c r="CD20" s="68">
+      <c r="CD20" s="67">
         <v>14</v>
       </c>
-      <c r="CE20" s="68"/>
-      <c r="CF20" s="68"/>
-      <c r="CG20" s="68"/>
-      <c r="CH20" s="68"/>
-      <c r="CI20" s="69">
+      <c r="CE20" s="67"/>
+      <c r="CF20" s="67"/>
+      <c r="CG20" s="67"/>
+      <c r="CH20" s="67"/>
+      <c r="CI20" s="68">
         <v>163</v>
       </c>
-      <c r="CJ20" s="69"/>
-      <c r="CK20" s="69"/>
-      <c r="CL20" s="69"/>
-      <c r="CM20" s="69"/>
-      <c r="CN20" s="64"/>
-      <c r="CO20" s="65"/>
-      <c r="CP20" s="65"/>
-      <c r="CQ20" s="65"/>
+      <c r="CJ20" s="68"/>
+      <c r="CK20" s="68"/>
+      <c r="CL20" s="68"/>
+      <c r="CM20" s="68"/>
+      <c r="CN20" s="62"/>
+      <c r="CO20" s="63"/>
+      <c r="CP20" s="63"/>
+      <c r="CQ20" s="63"/>
       <c r="CR20" s="40"/>
-      <c r="CS20" s="66"/>
-      <c r="CT20" s="67"/>
-      <c r="CU20" s="67"/>
-      <c r="CV20" s="67"/>
+      <c r="CS20" s="64"/>
+      <c r="CT20" s="65"/>
+      <c r="CU20" s="65"/>
+      <c r="CV20" s="65"/>
       <c r="CW20" s="40"/>
       <c r="CX20" s="21"/>
       <c r="CY20" s="21"/>
@@ -10444,24 +10444,24 @@
       <c r="DX20" s="12"/>
     </row>
     <row r="21" spans="1:128" ht="25" customHeight="1" thickTop="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="F21" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="17" t="s">
         <v>54</v>
       </c>
@@ -10474,29 +10474,29 @@
       <c r="AZ21" s="36"/>
       <c r="BY21" s="36"/>
       <c r="BZ21" s="36"/>
-      <c r="CD21" s="60" t="s">
+      <c r="CD21" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="CE21" s="60"/>
-      <c r="CF21" s="60"/>
-      <c r="CG21" s="60"/>
-      <c r="CH21" s="60"/>
-      <c r="CI21" s="61"/>
-      <c r="CJ21" s="61"/>
-      <c r="CK21" s="61"/>
-      <c r="CL21" s="61"/>
-      <c r="CM21" s="61"/>
-      <c r="CN21" s="62"/>
-      <c r="CO21" s="63"/>
-      <c r="CP21" s="63"/>
-      <c r="CQ21" s="63"/>
+      <c r="CE21" s="78"/>
+      <c r="CF21" s="78"/>
+      <c r="CG21" s="78"/>
+      <c r="CH21" s="78"/>
+      <c r="CI21" s="79"/>
+      <c r="CJ21" s="79"/>
+      <c r="CK21" s="79"/>
+      <c r="CL21" s="79"/>
+      <c r="CM21" s="79"/>
+      <c r="CN21" s="80"/>
+      <c r="CO21" s="81"/>
+      <c r="CP21" s="81"/>
+      <c r="CQ21" s="81"/>
       <c r="CR21" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="CS21" s="51"/>
-      <c r="CT21" s="52"/>
-      <c r="CU21" s="52"/>
-      <c r="CV21" s="52"/>
+      <c r="CS21" s="70"/>
+      <c r="CT21" s="71"/>
+      <c r="CU21" s="71"/>
+      <c r="CV21" s="71"/>
       <c r="CW21" s="41" t="s">
         <v>112</v>
       </c>
@@ -10518,40 +10518,40 @@
       </c>
       <c r="AY22" s="36"/>
       <c r="AZ22" s="36"/>
-      <c r="BA22" s="50" t="s">
+      <c r="BA22" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
       <c r="BD22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="BY22" s="36"/>
       <c r="BZ22" s="36"/>
-      <c r="CD22" s="53" t="s">
+      <c r="CD22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="CE22" s="53"/>
-      <c r="CF22" s="53"/>
-      <c r="CG22" s="53"/>
-      <c r="CH22" s="53"/>
+      <c r="CE22" s="60"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="60"/>
+      <c r="CH22" s="60"/>
       <c r="CI22" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="CJ22" s="54"/>
-      <c r="CK22" s="54"/>
-      <c r="CL22" s="54"/>
-      <c r="CM22" s="55"/>
-      <c r="CN22" s="56"/>
-      <c r="CO22" s="57"/>
-      <c r="CP22" s="57"/>
-      <c r="CQ22" s="57"/>
-      <c r="CR22" s="58"/>
-      <c r="CS22" s="59"/>
-      <c r="CT22" s="59"/>
-      <c r="CU22" s="59"/>
-      <c r="CV22" s="59"/>
-      <c r="CW22" s="59"/>
+      <c r="CJ22" s="72"/>
+      <c r="CK22" s="72"/>
+      <c r="CL22" s="72"/>
+      <c r="CM22" s="73"/>
+      <c r="CN22" s="74"/>
+      <c r="CO22" s="75"/>
+      <c r="CP22" s="75"/>
+      <c r="CQ22" s="75"/>
+      <c r="CR22" s="76"/>
+      <c r="CS22" s="77"/>
+      <c r="CT22" s="77"/>
+      <c r="CU22" s="77"/>
+      <c r="CV22" s="77"/>
+      <c r="CW22" s="77"/>
       <c r="CX22" s="22"/>
       <c r="CY22" s="22"/>
       <c r="CZ22" s="22"/>
@@ -10561,21 +10561,21 @@
       <c r="DX22" s="12"/>
     </row>
     <row r="23" spans="1:128" ht="25" customHeight="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
-      <c r="AF23" s="46"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="48"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="51"/>
       <c r="AL23" s="1" t="s">
         <v>81</v>
       </c>
@@ -10595,11 +10595,11 @@
       </c>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
-      <c r="AF24" s="46"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="48"/>
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="51"/>
       <c r="AL24" s="1" t="s">
         <v>148</v>
       </c>
@@ -10615,13 +10615,13 @@
       <c r="CE24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="CL24" s="43"/>
-      <c r="CM24" s="44"/>
-      <c r="CN24" s="44"/>
-      <c r="CO24" s="44"/>
-      <c r="CP24" s="44"/>
-      <c r="CQ24" s="44"/>
-      <c r="CR24" s="45"/>
+      <c r="CL24" s="69"/>
+      <c r="CM24" s="53"/>
+      <c r="CN24" s="53"/>
+      <c r="CO24" s="53"/>
+      <c r="CP24" s="53"/>
+      <c r="CQ24" s="53"/>
+      <c r="CR24" s="54"/>
       <c r="DA24" s="19"/>
       <c r="DC24" s="11"/>
       <c r="DX24" s="12"/>
@@ -10633,11 +10633,11 @@
       <c r="G25" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="48"/>
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="51"/>
       <c r="AL25" s="1" t="s">
         <v>93</v>
       </c>
@@ -10661,13 +10661,13 @@
       <c r="CI25" s="22"/>
       <c r="CJ25" s="22"/>
       <c r="CK25" s="22"/>
-      <c r="CL25" s="43"/>
-      <c r="CM25" s="44"/>
-      <c r="CN25" s="44"/>
-      <c r="CO25" s="44"/>
-      <c r="CP25" s="44"/>
-      <c r="CQ25" s="44"/>
-      <c r="CR25" s="45"/>
+      <c r="CL25" s="69"/>
+      <c r="CM25" s="53"/>
+      <c r="CN25" s="53"/>
+      <c r="CO25" s="53"/>
+      <c r="CP25" s="53"/>
+      <c r="CQ25" s="53"/>
+      <c r="CR25" s="54"/>
       <c r="CS25" s="22"/>
       <c r="CT25" s="22"/>
       <c r="CU25" s="22"/>
@@ -10687,11 +10687,11 @@
       <c r="G26" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="48"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="51"/>
       <c r="AL26" s="1" t="s">
         <v>89</v>
       </c>
@@ -10715,13 +10715,13 @@
       <c r="CI26" s="22"/>
       <c r="CJ26" s="22"/>
       <c r="CK26" s="22"/>
-      <c r="CL26" s="43"/>
-      <c r="CM26" s="44"/>
-      <c r="CN26" s="44"/>
-      <c r="CO26" s="44"/>
-      <c r="CP26" s="44"/>
-      <c r="CQ26" s="44"/>
-      <c r="CR26" s="45"/>
+      <c r="CL26" s="69"/>
+      <c r="CM26" s="53"/>
+      <c r="CN26" s="53"/>
+      <c r="CO26" s="53"/>
+      <c r="CP26" s="53"/>
+      <c r="CQ26" s="53"/>
+      <c r="CR26" s="54"/>
       <c r="CS26" s="22"/>
       <c r="CT26" s="22"/>
       <c r="CU26" s="22"/>
@@ -10741,11 +10741,11 @@
       <c r="AF27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AK27" s="46"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="48"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="51"/>
       <c r="AP27" s="1" t="s">
         <v>151</v>
       </c>
@@ -10758,13 +10758,13 @@
       <c r="CE27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="CL27" s="43"/>
-      <c r="CM27" s="44"/>
-      <c r="CN27" s="44"/>
-      <c r="CO27" s="44"/>
-      <c r="CP27" s="44"/>
-      <c r="CQ27" s="44"/>
-      <c r="CR27" s="45"/>
+      <c r="CL27" s="69"/>
+      <c r="CM27" s="53"/>
+      <c r="CN27" s="53"/>
+      <c r="CO27" s="53"/>
+      <c r="CP27" s="53"/>
+      <c r="CQ27" s="53"/>
+      <c r="CR27" s="54"/>
       <c r="DA27" s="19"/>
       <c r="DC27" s="11"/>
       <c r="DX27" s="12"/>
@@ -10783,21 +10783,21 @@
       <c r="CE28" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="CL28" s="43"/>
-      <c r="CM28" s="44"/>
-      <c r="CN28" s="44"/>
-      <c r="CO28" s="44"/>
-      <c r="CP28" s="44"/>
-      <c r="CQ28" s="44"/>
-      <c r="CR28" s="45"/>
+      <c r="CL28" s="69"/>
+      <c r="CM28" s="53"/>
+      <c r="CN28" s="53"/>
+      <c r="CO28" s="53"/>
+      <c r="CP28" s="53"/>
+      <c r="CQ28" s="53"/>
+      <c r="CR28" s="54"/>
       <c r="DA28" s="19"/>
       <c r="DC28" s="11"/>
       <c r="DX28" s="12"/>
     </row>
     <row r="29" spans="1:128" ht="25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="G29" s="17" t="s">
         <v>61</v>
       </c>
@@ -10859,13 +10859,13 @@
       <c r="CE29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="CL29" s="43"/>
-      <c r="CM29" s="44"/>
-      <c r="CN29" s="44"/>
-      <c r="CO29" s="44"/>
-      <c r="CP29" s="44"/>
-      <c r="CQ29" s="44"/>
-      <c r="CR29" s="45"/>
+      <c r="CL29" s="69"/>
+      <c r="CM29" s="53"/>
+      <c r="CN29" s="53"/>
+      <c r="CO29" s="53"/>
+      <c r="CP29" s="53"/>
+      <c r="CQ29" s="53"/>
+      <c r="CR29" s="54"/>
       <c r="DA29" s="19"/>
       <c r="DC29" s="11"/>
       <c r="DX29" s="12"/>
@@ -10884,13 +10884,13 @@
       <c r="CE30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="CL30" s="43"/>
-      <c r="CM30" s="44"/>
-      <c r="CN30" s="44"/>
-      <c r="CO30" s="44"/>
-      <c r="CP30" s="44"/>
-      <c r="CQ30" s="44"/>
-      <c r="CR30" s="45"/>
+      <c r="CL30" s="69"/>
+      <c r="CM30" s="53"/>
+      <c r="CN30" s="53"/>
+      <c r="CO30" s="53"/>
+      <c r="CP30" s="53"/>
+      <c r="CQ30" s="53"/>
+      <c r="CR30" s="54"/>
       <c r="DA30" s="19"/>
       <c r="DC30" s="11"/>
       <c r="DX30" s="12"/>
@@ -10906,13 +10906,13 @@
       <c r="CE31" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="CL31" s="43"/>
-      <c r="CM31" s="44"/>
-      <c r="CN31" s="44"/>
-      <c r="CO31" s="44"/>
-      <c r="CP31" s="44"/>
-      <c r="CQ31" s="44"/>
-      <c r="CR31" s="45"/>
+      <c r="CL31" s="69"/>
+      <c r="CM31" s="53"/>
+      <c r="CN31" s="53"/>
+      <c r="CO31" s="53"/>
+      <c r="CP31" s="53"/>
+      <c r="CQ31" s="53"/>
+      <c r="CR31" s="54"/>
       <c r="DA31" s="19"/>
       <c r="DC31" s="30"/>
       <c r="DD31" s="6"/>
@@ -11203,96 +11203,15 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="DC2:DX3"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="CD5:CH5"/>
-    <mergeCell ref="CI5:CM5"/>
-    <mergeCell ref="CN5:CR5"/>
-    <mergeCell ref="CS5:CW5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="AF6:AJ6"/>
-    <mergeCell ref="BE6:BI6"/>
-    <mergeCell ref="CD6:CH6"/>
-    <mergeCell ref="CI6:CM6"/>
-    <mergeCell ref="C2:F4"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="BO8:BS8"/>
-    <mergeCell ref="CD8:CH8"/>
-    <mergeCell ref="CI8:CM8"/>
-    <mergeCell ref="CN8:CQ8"/>
-    <mergeCell ref="CN6:CR6"/>
-    <mergeCell ref="CS6:CW6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="CD7:CH7"/>
-    <mergeCell ref="CI7:CM7"/>
-    <mergeCell ref="CN7:CQ7"/>
-    <mergeCell ref="CS7:CV7"/>
-    <mergeCell ref="BA11:BC11"/>
-    <mergeCell ref="CD11:CH11"/>
-    <mergeCell ref="CI11:CM11"/>
-    <mergeCell ref="CN11:CQ11"/>
-    <mergeCell ref="CS11:CV11"/>
-    <mergeCell ref="CS8:CV8"/>
-    <mergeCell ref="BN9:BR9"/>
-    <mergeCell ref="CD9:CH9"/>
-    <mergeCell ref="CI9:CM9"/>
-    <mergeCell ref="CN9:CQ9"/>
-    <mergeCell ref="CS9:CV9"/>
-    <mergeCell ref="CD12:CH12"/>
-    <mergeCell ref="CI12:CM12"/>
-    <mergeCell ref="CN12:CQ12"/>
-    <mergeCell ref="CS12:CV12"/>
-    <mergeCell ref="CD13:CH13"/>
-    <mergeCell ref="CI13:CM13"/>
-    <mergeCell ref="CN13:CQ13"/>
-    <mergeCell ref="CS13:CV13"/>
-    <mergeCell ref="CD10:CH10"/>
-    <mergeCell ref="CI10:CM10"/>
-    <mergeCell ref="CN10:CQ10"/>
-    <mergeCell ref="CS10:CV10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="CD17:CH17"/>
-    <mergeCell ref="CI17:CM17"/>
-    <mergeCell ref="CN17:CQ17"/>
-    <mergeCell ref="CS17:CV17"/>
-    <mergeCell ref="CD14:CH14"/>
-    <mergeCell ref="CI14:CM14"/>
-    <mergeCell ref="CN14:CQ14"/>
-    <mergeCell ref="CS14:CV14"/>
-    <mergeCell ref="CD15:CH15"/>
-    <mergeCell ref="CI15:CM15"/>
-    <mergeCell ref="CN15:CQ15"/>
-    <mergeCell ref="CS15:CV15"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AL19:AP19"/>
-    <mergeCell ref="CD19:CH19"/>
-    <mergeCell ref="CI19:CM19"/>
-    <mergeCell ref="CD16:CH16"/>
-    <mergeCell ref="CI16:CM16"/>
-    <mergeCell ref="CN16:CQ16"/>
-    <mergeCell ref="CS16:CV16"/>
-    <mergeCell ref="CN19:CQ19"/>
-    <mergeCell ref="CS19:CV19"/>
-    <mergeCell ref="CD20:CH20"/>
-    <mergeCell ref="CI20:CM20"/>
-    <mergeCell ref="CN20:CQ20"/>
-    <mergeCell ref="CS20:CV20"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="CD18:CH18"/>
-    <mergeCell ref="CI18:CM18"/>
-    <mergeCell ref="CN18:CQ18"/>
-    <mergeCell ref="CS18:CV18"/>
+    <mergeCell ref="CL30:CR30"/>
+    <mergeCell ref="CL31:CR31"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="CL26:CR26"/>
+    <mergeCell ref="AK27:AO27"/>
+    <mergeCell ref="CL27:CR27"/>
+    <mergeCell ref="CL28:CR28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="CL29:CR29"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="AF23:AJ23"/>
     <mergeCell ref="AF24:AJ24"/>
@@ -11311,21 +11230,102 @@
     <mergeCell ref="CD21:CH21"/>
     <mergeCell ref="CI21:CM21"/>
     <mergeCell ref="CN21:CQ21"/>
-    <mergeCell ref="CL30:CR30"/>
-    <mergeCell ref="CL31:CR31"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="CL26:CR26"/>
-    <mergeCell ref="AK27:AO27"/>
-    <mergeCell ref="CL27:CR27"/>
-    <mergeCell ref="CL28:CR28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="CL29:CR29"/>
+    <mergeCell ref="CD20:CH20"/>
+    <mergeCell ref="CI20:CM20"/>
+    <mergeCell ref="CN20:CQ20"/>
+    <mergeCell ref="CS20:CV20"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="CD18:CH18"/>
+    <mergeCell ref="CI18:CM18"/>
+    <mergeCell ref="CN18:CQ18"/>
+    <mergeCell ref="CS18:CV18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AL19:AP19"/>
+    <mergeCell ref="CD19:CH19"/>
+    <mergeCell ref="CI19:CM19"/>
+    <mergeCell ref="CD16:CH16"/>
+    <mergeCell ref="CI16:CM16"/>
+    <mergeCell ref="CN16:CQ16"/>
+    <mergeCell ref="CS16:CV16"/>
+    <mergeCell ref="CN19:CQ19"/>
+    <mergeCell ref="CS19:CV19"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="CD17:CH17"/>
+    <mergeCell ref="CI17:CM17"/>
+    <mergeCell ref="CN17:CQ17"/>
+    <mergeCell ref="CS17:CV17"/>
+    <mergeCell ref="CD14:CH14"/>
+    <mergeCell ref="CI14:CM14"/>
+    <mergeCell ref="CN14:CQ14"/>
+    <mergeCell ref="CS14:CV14"/>
+    <mergeCell ref="CD15:CH15"/>
+    <mergeCell ref="CI15:CM15"/>
+    <mergeCell ref="CN15:CQ15"/>
+    <mergeCell ref="CS15:CV15"/>
+    <mergeCell ref="CD12:CH12"/>
+    <mergeCell ref="CI12:CM12"/>
+    <mergeCell ref="CN12:CQ12"/>
+    <mergeCell ref="CS12:CV12"/>
+    <mergeCell ref="CD13:CH13"/>
+    <mergeCell ref="CI13:CM13"/>
+    <mergeCell ref="CN13:CQ13"/>
+    <mergeCell ref="CS13:CV13"/>
+    <mergeCell ref="CD10:CH10"/>
+    <mergeCell ref="CI10:CM10"/>
+    <mergeCell ref="CN10:CQ10"/>
+    <mergeCell ref="CS10:CV10"/>
+    <mergeCell ref="BA11:BC11"/>
+    <mergeCell ref="CD11:CH11"/>
+    <mergeCell ref="CI11:CM11"/>
+    <mergeCell ref="CN11:CQ11"/>
+    <mergeCell ref="CS11:CV11"/>
+    <mergeCell ref="CS8:CV8"/>
+    <mergeCell ref="BN9:BR9"/>
+    <mergeCell ref="CD9:CH9"/>
+    <mergeCell ref="CI9:CM9"/>
+    <mergeCell ref="CN9:CQ9"/>
+    <mergeCell ref="CS9:CV9"/>
+    <mergeCell ref="CN8:CQ8"/>
+    <mergeCell ref="CN6:CR6"/>
+    <mergeCell ref="CS6:CW6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="CD7:CH7"/>
+    <mergeCell ref="CI7:CM7"/>
+    <mergeCell ref="CN7:CQ7"/>
+    <mergeCell ref="CS7:CV7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="BE6:BI6"/>
+    <mergeCell ref="CD6:CH6"/>
+    <mergeCell ref="CI6:CM6"/>
+    <mergeCell ref="C2:F4"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="BO8:BS8"/>
+    <mergeCell ref="CD8:CH8"/>
+    <mergeCell ref="CI8:CM8"/>
+    <mergeCell ref="DC2:DX3"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="BE3:BI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="CD5:CH5"/>
+    <mergeCell ref="CI5:CM5"/>
+    <mergeCell ref="CN5:CR5"/>
+    <mergeCell ref="CS5:CW5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.6" right="0.6" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L2023/10/02&amp;C&amp;"メイリオ,Regular"&amp;16&amp;A&amp;R&amp;"メイリオ,Regular"（担当：YOH）</oddHeader>
+    <oddHeader>&amp;L2023/10/03&amp;C&amp;"メイリオ,Regular"&amp;16&amp;A&amp;R&amp;"メイリオ,Regular"（担当：YOH）</oddHeader>
     <oddFooter>&amp;R&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
@@ -11336,8 +11336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DX37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="CA27" sqref="CA27"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="25" customHeight="1"/>
@@ -11386,12 +11386,12 @@
     <row r="2" spans="1:128" ht="25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
@@ -11414,19 +11414,19 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
       <c r="AD2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="BA2" s="50" t="s">
+      <c r="BA2" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
       <c r="BD2" s="1" t="s">
         <v>99</v>
       </c>
@@ -11437,38 +11437,38 @@
         <v>102</v>
       </c>
       <c r="DA2" s="19"/>
-      <c r="DC2" s="73" t="s">
+      <c r="DC2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="DD2" s="74"/>
-      <c r="DE2" s="74"/>
-      <c r="DF2" s="74"/>
-      <c r="DG2" s="74"/>
-      <c r="DH2" s="74"/>
-      <c r="DI2" s="74"/>
-      <c r="DJ2" s="74"/>
-      <c r="DK2" s="74"/>
-      <c r="DL2" s="74"/>
-      <c r="DM2" s="74"/>
-      <c r="DN2" s="74"/>
-      <c r="DO2" s="74"/>
-      <c r="DP2" s="74"/>
-      <c r="DQ2" s="74"/>
-      <c r="DR2" s="74"/>
-      <c r="DS2" s="74"/>
-      <c r="DT2" s="74"/>
-      <c r="DU2" s="74"/>
-      <c r="DV2" s="74"/>
-      <c r="DW2" s="74"/>
-      <c r="DX2" s="75"/>
+      <c r="DD2" s="44"/>
+      <c r="DE2" s="44"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
+      <c r="DH2" s="44"/>
+      <c r="DI2" s="44"/>
+      <c r="DJ2" s="44"/>
+      <c r="DK2" s="44"/>
+      <c r="DL2" s="44"/>
+      <c r="DM2" s="44"/>
+      <c r="DN2" s="44"/>
+      <c r="DO2" s="44"/>
+      <c r="DP2" s="44"/>
+      <c r="DQ2" s="44"/>
+      <c r="DR2" s="44"/>
+      <c r="DS2" s="44"/>
+      <c r="DT2" s="44"/>
+      <c r="DU2" s="44"/>
+      <c r="DV2" s="44"/>
+      <c r="DW2" s="44"/>
+      <c r="DX2" s="45"/>
     </row>
     <row r="3" spans="1:128" ht="25" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="77"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
@@ -11491,33 +11491,33 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
-      <c r="AE3" s="46" t="s">
+      <c r="AE3" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="51"/>
       <c r="AJ3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AK3" s="37"/>
       <c r="AL3" s="37"/>
-      <c r="AM3" s="81" t="s">
+      <c r="AM3" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="45"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="54"/>
       <c r="AP3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BE3" s="46" t="s">
+      <c r="BE3" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="47"/>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="48"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="51"/>
       <c r="BJ3" s="1" t="s">
         <v>154</v>
       </c>
@@ -11527,36 +11527,36 @@
         <v>115</v>
       </c>
       <c r="DA3" s="19"/>
-      <c r="DC3" s="78"/>
-      <c r="DD3" s="79"/>
-      <c r="DE3" s="79"/>
-      <c r="DF3" s="79"/>
-      <c r="DG3" s="79"/>
-      <c r="DH3" s="79"/>
-      <c r="DI3" s="79"/>
-      <c r="DJ3" s="79"/>
-      <c r="DK3" s="79"/>
-      <c r="DL3" s="79"/>
-      <c r="DM3" s="79"/>
-      <c r="DN3" s="79"/>
-      <c r="DO3" s="79"/>
-      <c r="DP3" s="79"/>
-      <c r="DQ3" s="79"/>
-      <c r="DR3" s="79"/>
-      <c r="DS3" s="79"/>
-      <c r="DT3" s="79"/>
-      <c r="DU3" s="79"/>
-      <c r="DV3" s="79"/>
-      <c r="DW3" s="79"/>
-      <c r="DX3" s="80"/>
+      <c r="DC3" s="46"/>
+      <c r="DD3" s="47"/>
+      <c r="DE3" s="47"/>
+      <c r="DF3" s="47"/>
+      <c r="DG3" s="47"/>
+      <c r="DH3" s="47"/>
+      <c r="DI3" s="47"/>
+      <c r="DJ3" s="47"/>
+      <c r="DK3" s="47"/>
+      <c r="DL3" s="47"/>
+      <c r="DM3" s="47"/>
+      <c r="DN3" s="47"/>
+      <c r="DO3" s="47"/>
+      <c r="DP3" s="47"/>
+      <c r="DQ3" s="47"/>
+      <c r="DR3" s="47"/>
+      <c r="DS3" s="47"/>
+      <c r="DT3" s="47"/>
+      <c r="DU3" s="47"/>
+      <c r="DV3" s="47"/>
+      <c r="DW3" s="47"/>
+      <c r="DX3" s="48"/>
     </row>
     <row r="4" spans="1:128" ht="25" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="24" t="s">
         <v>40</v>
       </c>
@@ -11579,38 +11579,38 @@
       <c r="X4" s="26"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
-      <c r="AE4" s="46" t="s">
+      <c r="AE4" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="48"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="51"/>
       <c r="AJ4" s="1" t="s">
         <v>126</v>
       </c>
       <c r="AK4" s="37"/>
       <c r="AL4" s="37"/>
-      <c r="AO4" s="81" t="s">
+      <c r="AO4" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="45"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="54"/>
       <c r="AR4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AT4" s="81" t="s">
+      <c r="AT4" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="AU4" s="44"/>
-      <c r="AV4" s="45"/>
-      <c r="BE4" s="46" t="s">
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="54"/>
+      <c r="BE4" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="BF4" s="47"/>
-      <c r="BG4" s="47"/>
-      <c r="BH4" s="47"/>
-      <c r="BI4" s="48"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="51"/>
       <c r="BJ4" s="1" t="s">
         <v>156</v>
       </c>
@@ -11671,34 +11671,34 @@
       <c r="BJ5" s="37"/>
       <c r="BK5" s="37"/>
       <c r="BL5" s="37"/>
-      <c r="CD5" s="72" t="s">
+      <c r="CD5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="CE5" s="72"/>
-      <c r="CF5" s="72"/>
-      <c r="CG5" s="72"/>
-      <c r="CH5" s="72"/>
-      <c r="CI5" s="72" t="s">
+      <c r="CE5" s="55"/>
+      <c r="CF5" s="55"/>
+      <c r="CG5" s="55"/>
+      <c r="CH5" s="55"/>
+      <c r="CI5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="CJ5" s="72"/>
-      <c r="CK5" s="72"/>
-      <c r="CL5" s="72"/>
-      <c r="CM5" s="72"/>
-      <c r="CN5" s="72" t="s">
+      <c r="CJ5" s="55"/>
+      <c r="CK5" s="55"/>
+      <c r="CL5" s="55"/>
+      <c r="CM5" s="55"/>
+      <c r="CN5" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="CO5" s="72"/>
-      <c r="CP5" s="72"/>
-      <c r="CQ5" s="72"/>
-      <c r="CR5" s="72"/>
-      <c r="CS5" s="72" t="s">
+      <c r="CO5" s="55"/>
+      <c r="CP5" s="55"/>
+      <c r="CQ5" s="55"/>
+      <c r="CR5" s="55"/>
+      <c r="CS5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="CT5" s="72"/>
-      <c r="CU5" s="72"/>
-      <c r="CV5" s="72"/>
-      <c r="CW5" s="72"/>
+      <c r="CT5" s="55"/>
+      <c r="CU5" s="55"/>
+      <c r="CV5" s="55"/>
+      <c r="CW5" s="55"/>
       <c r="DA5" s="19"/>
       <c r="DC5" s="14"/>
       <c r="DE5" s="1" t="s">
@@ -11710,11 +11710,11 @@
       <c r="DX5" s="5"/>
     </row>
     <row r="6" spans="1:128" ht="25" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="17" t="s">
         <v>43</v>
       </c>
@@ -11722,50 +11722,50 @@
       <c r="X6" s="19"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
-      <c r="AF6" s="46" t="s">
+      <c r="AF6" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="48"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BE6" s="46" t="s">
+      <c r="BE6" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="48"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="51"/>
       <c r="BJ6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="CD6" s="71" t="s">
+      <c r="CD6" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="CE6" s="71"/>
-      <c r="CF6" s="71"/>
-      <c r="CG6" s="71"/>
-      <c r="CH6" s="71"/>
-      <c r="CI6" s="71" t="s">
+      <c r="CE6" s="57"/>
+      <c r="CF6" s="57"/>
+      <c r="CG6" s="57"/>
+      <c r="CH6" s="57"/>
+      <c r="CI6" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="CJ6" s="71"/>
-      <c r="CK6" s="71"/>
-      <c r="CL6" s="71"/>
-      <c r="CM6" s="71"/>
-      <c r="CN6" s="71"/>
-      <c r="CO6" s="71"/>
-      <c r="CP6" s="71"/>
-      <c r="CQ6" s="71"/>
-      <c r="CR6" s="71"/>
-      <c r="CS6" s="71"/>
-      <c r="CT6" s="71"/>
-      <c r="CU6" s="71"/>
-      <c r="CV6" s="71"/>
-      <c r="CW6" s="71"/>
+      <c r="CJ6" s="57"/>
+      <c r="CK6" s="57"/>
+      <c r="CL6" s="57"/>
+      <c r="CM6" s="57"/>
+      <c r="CN6" s="57"/>
+      <c r="CO6" s="57"/>
+      <c r="CP6" s="57"/>
+      <c r="CQ6" s="57"/>
+      <c r="CR6" s="57"/>
+      <c r="CS6" s="57"/>
+      <c r="CT6" s="57"/>
+      <c r="CU6" s="57"/>
+      <c r="CV6" s="57"/>
+      <c r="CW6" s="57"/>
       <c r="DA6" s="19"/>
       <c r="DC6" s="28"/>
       <c r="DD6" s="6"/>
@@ -11797,57 +11797,57 @@
     <row r="7" spans="1:128" ht="25" customHeight="1">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
-      <c r="BE7" s="46" t="s">
+      <c r="BE7" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="BF7" s="47"/>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="47"/>
-      <c r="BI7" s="48"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="51"/>
       <c r="BJ7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="CD7" s="53">
+      <c r="CD7" s="60">
         <v>1</v>
       </c>
-      <c r="CE7" s="53"/>
-      <c r="CF7" s="53"/>
-      <c r="CG7" s="53"/>
-      <c r="CH7" s="53"/>
-      <c r="CI7" s="70">
+      <c r="CE7" s="60"/>
+      <c r="CF7" s="60"/>
+      <c r="CG7" s="60"/>
+      <c r="CH7" s="60"/>
+      <c r="CI7" s="61">
         <v>184</v>
       </c>
-      <c r="CJ7" s="70"/>
-      <c r="CK7" s="70"/>
-      <c r="CL7" s="70"/>
-      <c r="CM7" s="70"/>
-      <c r="CN7" s="64">
+      <c r="CJ7" s="61"/>
+      <c r="CK7" s="61"/>
+      <c r="CL7" s="61"/>
+      <c r="CM7" s="61"/>
+      <c r="CN7" s="62">
         <f t="shared" ref="CN7:CN20" si="0">CI7-$CJ$22</f>
         <v>12.071428571428584</v>
       </c>
-      <c r="CO7" s="65"/>
-      <c r="CP7" s="65"/>
-      <c r="CQ7" s="65"/>
+      <c r="CO7" s="63"/>
+      <c r="CP7" s="63"/>
+      <c r="CQ7" s="63"/>
       <c r="CR7" s="40"/>
-      <c r="CS7" s="66">
+      <c r="CS7" s="64">
         <f>CN7^2</f>
         <v>145.71938775510233</v>
       </c>
-      <c r="CT7" s="67"/>
-      <c r="CU7" s="67"/>
-      <c r="CV7" s="67"/>
+      <c r="CT7" s="65"/>
+      <c r="CU7" s="65"/>
+      <c r="CV7" s="65"/>
       <c r="CW7" s="40"/>
       <c r="DA7" s="19"/>
       <c r="DC7" s="18"/>
@@ -11878,67 +11878,67 @@
     <row r="8" spans="1:128" ht="25" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="17" t="s">
         <v>47</v>
       </c>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
-      <c r="AA8" s="50" t="s">
+      <c r="AA8" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
       <c r="AD8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BO8" s="46" t="s">
+      <c r="BO8" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="BP8" s="47"/>
-      <c r="BQ8" s="47"/>
-      <c r="BR8" s="47"/>
-      <c r="BS8" s="48"/>
-      <c r="CD8" s="53">
+      <c r="BP8" s="50"/>
+      <c r="BQ8" s="50"/>
+      <c r="BR8" s="50"/>
+      <c r="BS8" s="51"/>
+      <c r="CD8" s="60">
         <v>2</v>
       </c>
-      <c r="CE8" s="53"/>
-      <c r="CF8" s="53"/>
-      <c r="CG8" s="53"/>
-      <c r="CH8" s="53"/>
-      <c r="CI8" s="70">
+      <c r="CE8" s="60"/>
+      <c r="CF8" s="60"/>
+      <c r="CG8" s="60"/>
+      <c r="CH8" s="60"/>
+      <c r="CI8" s="61">
         <v>174</v>
       </c>
-      <c r="CJ8" s="70"/>
-      <c r="CK8" s="70"/>
-      <c r="CL8" s="70"/>
-      <c r="CM8" s="70"/>
-      <c r="CN8" s="64">
+      <c r="CJ8" s="61"/>
+      <c r="CK8" s="61"/>
+      <c r="CL8" s="61"/>
+      <c r="CM8" s="61"/>
+      <c r="CN8" s="62">
         <f t="shared" si="0"/>
         <v>2.0714285714285836</v>
       </c>
-      <c r="CO8" s="65"/>
-      <c r="CP8" s="65"/>
-      <c r="CQ8" s="65"/>
+      <c r="CO8" s="63"/>
+      <c r="CP8" s="63"/>
+      <c r="CQ8" s="63"/>
       <c r="CR8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="CS8" s="66">
+      <c r="CS8" s="64">
         <f t="shared" ref="CS8:CS20" si="1">CN8^2</f>
         <v>4.2908163265306625</v>
       </c>
-      <c r="CT8" s="67"/>
-      <c r="CU8" s="67"/>
-      <c r="CV8" s="67"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
       <c r="CW8" s="40"/>
       <c r="DA8" s="19"/>
       <c r="DC8" s="4"/>
@@ -11961,45 +11961,45 @@
       <c r="BK9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BN9" s="46" t="s">
+      <c r="BN9" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="BO9" s="47"/>
-      <c r="BP9" s="47"/>
-      <c r="BQ9" s="47"/>
-      <c r="BR9" s="48"/>
+      <c r="BO9" s="50"/>
+      <c r="BP9" s="50"/>
+      <c r="BQ9" s="50"/>
+      <c r="BR9" s="51"/>
       <c r="BS9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CD9" s="53">
+      <c r="CD9" s="60">
         <v>3</v>
       </c>
-      <c r="CE9" s="53"/>
-      <c r="CF9" s="53"/>
-      <c r="CG9" s="53"/>
-      <c r="CH9" s="53"/>
-      <c r="CI9" s="70">
+      <c r="CE9" s="60"/>
+      <c r="CF9" s="60"/>
+      <c r="CG9" s="60"/>
+      <c r="CH9" s="60"/>
+      <c r="CI9" s="61">
         <v>160</v>
       </c>
-      <c r="CJ9" s="70"/>
-      <c r="CK9" s="70"/>
-      <c r="CL9" s="70"/>
-      <c r="CM9" s="70"/>
-      <c r="CN9" s="64">
+      <c r="CJ9" s="61"/>
+      <c r="CK9" s="61"/>
+      <c r="CL9" s="61"/>
+      <c r="CM9" s="61"/>
+      <c r="CN9" s="62">
         <f t="shared" si="0"/>
         <v>-11.928571428571416</v>
       </c>
-      <c r="CO9" s="65"/>
-      <c r="CP9" s="65"/>
-      <c r="CQ9" s="65"/>
+      <c r="CO9" s="63"/>
+      <c r="CP9" s="63"/>
+      <c r="CQ9" s="63"/>
       <c r="CR9" s="40"/>
-      <c r="CS9" s="66">
+      <c r="CS9" s="64">
         <f t="shared" si="1"/>
         <v>142.29081632653032</v>
       </c>
-      <c r="CT9" s="67"/>
-      <c r="CU9" s="67"/>
-      <c r="CV9" s="67"/>
+      <c r="CT9" s="65"/>
+      <c r="CU9" s="65"/>
+      <c r="CV9" s="65"/>
       <c r="CW9" s="40" t="s">
         <v>110</v>
       </c>
@@ -12040,35 +12040,35 @@
         <v>140</v>
       </c>
       <c r="AG10" s="37"/>
-      <c r="CD10" s="53">
+      <c r="CD10" s="60">
         <v>4</v>
       </c>
-      <c r="CE10" s="53"/>
-      <c r="CF10" s="53"/>
-      <c r="CG10" s="53"/>
-      <c r="CH10" s="53"/>
-      <c r="CI10" s="70">
+      <c r="CE10" s="60"/>
+      <c r="CF10" s="60"/>
+      <c r="CG10" s="60"/>
+      <c r="CH10" s="60"/>
+      <c r="CI10" s="61">
         <v>178</v>
       </c>
-      <c r="CJ10" s="70"/>
-      <c r="CK10" s="70"/>
-      <c r="CL10" s="70"/>
-      <c r="CM10" s="70"/>
-      <c r="CN10" s="64">
+      <c r="CJ10" s="61"/>
+      <c r="CK10" s="61"/>
+      <c r="CL10" s="61"/>
+      <c r="CM10" s="61"/>
+      <c r="CN10" s="62">
         <f t="shared" si="0"/>
         <v>6.0714285714285836</v>
       </c>
-      <c r="CO10" s="65"/>
-      <c r="CP10" s="65"/>
-      <c r="CQ10" s="65"/>
+      <c r="CO10" s="63"/>
+      <c r="CP10" s="63"/>
+      <c r="CQ10" s="63"/>
       <c r="CR10" s="40"/>
-      <c r="CS10" s="66">
+      <c r="CS10" s="64">
         <f t="shared" si="1"/>
         <v>36.862244897959329</v>
       </c>
-      <c r="CT10" s="67"/>
-      <c r="CU10" s="67"/>
-      <c r="CV10" s="67"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
+      <c r="CV10" s="65"/>
       <c r="CW10" s="40"/>
       <c r="DA10" s="19"/>
       <c r="DC10" s="4"/>
@@ -12105,11 +12105,11 @@
       <c r="AX11" s="35"/>
       <c r="AY11" s="35"/>
       <c r="AZ11" s="35"/>
-      <c r="BA11" s="50" t="s">
+      <c r="BA11" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
       <c r="BD11" s="1" t="s">
         <v>167</v>
       </c>
@@ -12131,35 +12131,35 @@
       <c r="BY11" s="35"/>
       <c r="BZ11" s="35"/>
       <c r="CC11" s="21"/>
-      <c r="CD11" s="53">
+      <c r="CD11" s="60">
         <v>5</v>
       </c>
-      <c r="CE11" s="53"/>
-      <c r="CF11" s="53"/>
-      <c r="CG11" s="53"/>
-      <c r="CH11" s="53"/>
-      <c r="CI11" s="70">
+      <c r="CE11" s="60"/>
+      <c r="CF11" s="60"/>
+      <c r="CG11" s="60"/>
+      <c r="CH11" s="60"/>
+      <c r="CI11" s="61">
         <v>167</v>
       </c>
-      <c r="CJ11" s="70"/>
-      <c r="CK11" s="70"/>
-      <c r="CL11" s="70"/>
-      <c r="CM11" s="70"/>
-      <c r="CN11" s="64">
+      <c r="CJ11" s="61"/>
+      <c r="CK11" s="61"/>
+      <c r="CL11" s="61"/>
+      <c r="CM11" s="61"/>
+      <c r="CN11" s="62">
         <f t="shared" si="0"/>
         <v>-4.9285714285714164</v>
       </c>
-      <c r="CO11" s="65"/>
-      <c r="CP11" s="65"/>
-      <c r="CQ11" s="65"/>
+      <c r="CO11" s="63"/>
+      <c r="CP11" s="63"/>
+      <c r="CQ11" s="63"/>
       <c r="CR11" s="40"/>
-      <c r="CS11" s="66">
+      <c r="CS11" s="64">
         <f t="shared" si="1"/>
         <v>24.290816326530493</v>
       </c>
-      <c r="CT11" s="67"/>
-      <c r="CU11" s="67"/>
-      <c r="CV11" s="67"/>
+      <c r="CT11" s="65"/>
+      <c r="CU11" s="65"/>
+      <c r="CV11" s="65"/>
       <c r="CW11" s="40"/>
       <c r="CX11" s="21"/>
       <c r="CY11" s="21"/>
@@ -12185,37 +12185,37 @@
       <c r="BE12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="CD12" s="53">
+      <c r="CD12" s="60">
         <v>6</v>
       </c>
-      <c r="CE12" s="53"/>
-      <c r="CF12" s="53"/>
-      <c r="CG12" s="53"/>
-      <c r="CH12" s="53"/>
-      <c r="CI12" s="70">
+      <c r="CE12" s="60"/>
+      <c r="CF12" s="60"/>
+      <c r="CG12" s="60"/>
+      <c r="CH12" s="60"/>
+      <c r="CI12" s="61">
         <v>179</v>
       </c>
-      <c r="CJ12" s="70"/>
-      <c r="CK12" s="70"/>
-      <c r="CL12" s="70"/>
-      <c r="CM12" s="70"/>
-      <c r="CN12" s="64">
+      <c r="CJ12" s="61"/>
+      <c r="CK12" s="61"/>
+      <c r="CL12" s="61"/>
+      <c r="CM12" s="61"/>
+      <c r="CN12" s="62">
         <f t="shared" si="0"/>
         <v>7.0714285714285836</v>
       </c>
-      <c r="CO12" s="65"/>
-      <c r="CP12" s="65"/>
-      <c r="CQ12" s="65"/>
+      <c r="CO12" s="63"/>
+      <c r="CP12" s="63"/>
+      <c r="CQ12" s="63"/>
       <c r="CR12" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="CS12" s="66">
+      <c r="CS12" s="64">
         <f t="shared" si="1"/>
         <v>50.005102040816496</v>
       </c>
-      <c r="CT12" s="67"/>
-      <c r="CU12" s="67"/>
-      <c r="CV12" s="67"/>
+      <c r="CT12" s="65"/>
+      <c r="CU12" s="65"/>
+      <c r="CV12" s="65"/>
       <c r="CW12" s="40"/>
       <c r="DA12" s="19"/>
       <c r="DC12" s="4"/>
@@ -12247,35 +12247,35 @@
       <c r="BG13" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="CD13" s="53">
+      <c r="CD13" s="60">
         <v>7</v>
       </c>
-      <c r="CE13" s="53"/>
-      <c r="CF13" s="53"/>
-      <c r="CG13" s="53"/>
-      <c r="CH13" s="53"/>
-      <c r="CI13" s="70">
+      <c r="CE13" s="60"/>
+      <c r="CF13" s="60"/>
+      <c r="CG13" s="60"/>
+      <c r="CH13" s="60"/>
+      <c r="CI13" s="61">
         <v>181</v>
       </c>
-      <c r="CJ13" s="70"/>
-      <c r="CK13" s="70"/>
-      <c r="CL13" s="70"/>
-      <c r="CM13" s="70"/>
-      <c r="CN13" s="64">
+      <c r="CJ13" s="61"/>
+      <c r="CK13" s="61"/>
+      <c r="CL13" s="61"/>
+      <c r="CM13" s="61"/>
+      <c r="CN13" s="62">
         <f t="shared" si="0"/>
         <v>9.0714285714285836</v>
       </c>
-      <c r="CO13" s="65"/>
-      <c r="CP13" s="65"/>
-      <c r="CQ13" s="65"/>
+      <c r="CO13" s="63"/>
+      <c r="CP13" s="63"/>
+      <c r="CQ13" s="63"/>
       <c r="CR13" s="40"/>
-      <c r="CS13" s="66">
+      <c r="CS13" s="64">
         <f t="shared" si="1"/>
         <v>82.29081632653083</v>
       </c>
-      <c r="CT13" s="67"/>
-      <c r="CU13" s="67"/>
-      <c r="CV13" s="67"/>
+      <c r="CT13" s="65"/>
+      <c r="CU13" s="65"/>
+      <c r="CV13" s="65"/>
       <c r="CW13" s="40"/>
       <c r="DA13" s="19"/>
       <c r="DB13" s="27"/>
@@ -12305,35 +12305,35 @@
       <c r="BG14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="CD14" s="53">
+      <c r="CD14" s="60">
         <v>8</v>
       </c>
-      <c r="CE14" s="53"/>
-      <c r="CF14" s="53"/>
-      <c r="CG14" s="53"/>
-      <c r="CH14" s="53"/>
-      <c r="CI14" s="70">
+      <c r="CE14" s="60"/>
+      <c r="CF14" s="60"/>
+      <c r="CG14" s="60"/>
+      <c r="CH14" s="60"/>
+      <c r="CI14" s="61">
         <v>167</v>
       </c>
-      <c r="CJ14" s="70"/>
-      <c r="CK14" s="70"/>
-      <c r="CL14" s="70"/>
-      <c r="CM14" s="70"/>
-      <c r="CN14" s="64">
+      <c r="CJ14" s="61"/>
+      <c r="CK14" s="61"/>
+      <c r="CL14" s="61"/>
+      <c r="CM14" s="61"/>
+      <c r="CN14" s="62">
         <f t="shared" si="0"/>
         <v>-4.9285714285714164</v>
       </c>
-      <c r="CO14" s="65"/>
-      <c r="CP14" s="65"/>
-      <c r="CQ14" s="65"/>
+      <c r="CO14" s="63"/>
+      <c r="CP14" s="63"/>
+      <c r="CQ14" s="63"/>
       <c r="CR14" s="40"/>
-      <c r="CS14" s="66">
+      <c r="CS14" s="64">
         <f t="shared" si="1"/>
         <v>24.290816326530493</v>
       </c>
-      <c r="CT14" s="67"/>
-      <c r="CU14" s="67"/>
-      <c r="CV14" s="67"/>
+      <c r="CT14" s="65"/>
+      <c r="CU14" s="65"/>
+      <c r="CV14" s="65"/>
       <c r="CW14" s="40"/>
       <c r="DA14" s="19"/>
       <c r="DB14" s="12"/>
@@ -12363,35 +12363,35 @@
       <c r="BG15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="CD15" s="53">
+      <c r="CD15" s="60">
         <v>9</v>
       </c>
-      <c r="CE15" s="53"/>
-      <c r="CF15" s="53"/>
-      <c r="CG15" s="53"/>
-      <c r="CH15" s="53"/>
-      <c r="CI15" s="70">
+      <c r="CE15" s="60"/>
+      <c r="CF15" s="60"/>
+      <c r="CG15" s="60"/>
+      <c r="CH15" s="60"/>
+      <c r="CI15" s="61">
         <v>160</v>
       </c>
-      <c r="CJ15" s="70"/>
-      <c r="CK15" s="70"/>
-      <c r="CL15" s="70"/>
-      <c r="CM15" s="70"/>
-      <c r="CN15" s="64">
+      <c r="CJ15" s="61"/>
+      <c r="CK15" s="61"/>
+      <c r="CL15" s="61"/>
+      <c r="CM15" s="61"/>
+      <c r="CN15" s="62">
         <f t="shared" si="0"/>
         <v>-11.928571428571416</v>
       </c>
-      <c r="CO15" s="65"/>
-      <c r="CP15" s="65"/>
-      <c r="CQ15" s="65"/>
+      <c r="CO15" s="63"/>
+      <c r="CP15" s="63"/>
+      <c r="CQ15" s="63"/>
       <c r="CR15" s="40"/>
-      <c r="CS15" s="66">
+      <c r="CS15" s="64">
         <f t="shared" si="1"/>
         <v>142.29081632653032</v>
       </c>
-      <c r="CT15" s="67"/>
-      <c r="CU15" s="67"/>
-      <c r="CV15" s="67"/>
+      <c r="CT15" s="65"/>
+      <c r="CU15" s="65"/>
+      <c r="CV15" s="65"/>
       <c r="CW15" s="40" t="s">
         <v>111</v>
       </c>
@@ -12423,37 +12423,37 @@
       <c r="BG16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CD16" s="53">
+      <c r="CD16" s="60">
         <v>10</v>
       </c>
-      <c r="CE16" s="53"/>
-      <c r="CF16" s="53"/>
-      <c r="CG16" s="53"/>
-      <c r="CH16" s="53"/>
-      <c r="CI16" s="70">
+      <c r="CE16" s="60"/>
+      <c r="CF16" s="60"/>
+      <c r="CG16" s="60"/>
+      <c r="CH16" s="60"/>
+      <c r="CI16" s="61">
         <v>168</v>
       </c>
-      <c r="CJ16" s="70"/>
-      <c r="CK16" s="70"/>
-      <c r="CL16" s="70"/>
-      <c r="CM16" s="70"/>
-      <c r="CN16" s="64">
+      <c r="CJ16" s="61"/>
+      <c r="CK16" s="61"/>
+      <c r="CL16" s="61"/>
+      <c r="CM16" s="61"/>
+      <c r="CN16" s="62">
         <f t="shared" si="0"/>
         <v>-3.9285714285714164</v>
       </c>
-      <c r="CO16" s="65"/>
-      <c r="CP16" s="65"/>
-      <c r="CQ16" s="65"/>
+      <c r="CO16" s="63"/>
+      <c r="CP16" s="63"/>
+      <c r="CQ16" s="63"/>
       <c r="CR16" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="CS16" s="66">
+      <c r="CS16" s="64">
         <f t="shared" si="1"/>
         <v>15.43367346938766</v>
       </c>
-      <c r="CT16" s="67"/>
-      <c r="CU16" s="67"/>
-      <c r="CV16" s="67"/>
+      <c r="CT16" s="65"/>
+      <c r="CU16" s="65"/>
+      <c r="CV16" s="65"/>
       <c r="CW16" s="40"/>
       <c r="DA16" s="19"/>
       <c r="DB16" s="12"/>
@@ -12483,9 +12483,9 @@
       <c r="DX16" s="15"/>
     </row>
     <row r="17" spans="1:128" ht="25" customHeight="1" thickBot="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="BF17" s="1" t="s">
@@ -12494,35 +12494,35 @@
       <c r="BG17" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CD17" s="53">
+      <c r="CD17" s="60">
         <v>11</v>
       </c>
-      <c r="CE17" s="53"/>
-      <c r="CF17" s="53"/>
-      <c r="CG17" s="53"/>
-      <c r="CH17" s="53"/>
-      <c r="CI17" s="70">
+      <c r="CE17" s="60"/>
+      <c r="CF17" s="60"/>
+      <c r="CG17" s="60"/>
+      <c r="CH17" s="60"/>
+      <c r="CI17" s="61">
         <v>175</v>
       </c>
-      <c r="CJ17" s="70"/>
-      <c r="CK17" s="70"/>
-      <c r="CL17" s="70"/>
-      <c r="CM17" s="70"/>
-      <c r="CN17" s="64">
+      <c r="CJ17" s="61"/>
+      <c r="CK17" s="61"/>
+      <c r="CL17" s="61"/>
+      <c r="CM17" s="61"/>
+      <c r="CN17" s="62">
         <f t="shared" si="0"/>
         <v>3.0714285714285836</v>
       </c>
-      <c r="CO17" s="65"/>
-      <c r="CP17" s="65"/>
-      <c r="CQ17" s="65"/>
+      <c r="CO17" s="63"/>
+      <c r="CP17" s="63"/>
+      <c r="CQ17" s="63"/>
       <c r="CR17" s="40"/>
-      <c r="CS17" s="66">
+      <c r="CS17" s="64">
         <f t="shared" si="1"/>
         <v>9.4336734693878306</v>
       </c>
-      <c r="CT17" s="67"/>
-      <c r="CU17" s="67"/>
-      <c r="CV17" s="67"/>
+      <c r="CT17" s="65"/>
+      <c r="CU17" s="65"/>
+      <c r="CV17" s="65"/>
       <c r="CW17" s="40"/>
       <c r="DA17" s="19"/>
       <c r="DB17" s="12"/>
@@ -12556,46 +12556,46 @@
       <c r="B18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
-      <c r="AA18" s="50" t="s">
+      <c r="AA18" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="1" t="s">
         <v>142</v>
       </c>
       <c r="BG18" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CD18" s="53">
+      <c r="CD18" s="60">
         <v>12</v>
       </c>
-      <c r="CE18" s="53"/>
-      <c r="CF18" s="53"/>
-      <c r="CG18" s="53"/>
-      <c r="CH18" s="53"/>
-      <c r="CI18" s="70">
+      <c r="CE18" s="60"/>
+      <c r="CF18" s="60"/>
+      <c r="CG18" s="60"/>
+      <c r="CH18" s="60"/>
+      <c r="CI18" s="61">
         <v>167</v>
       </c>
-      <c r="CJ18" s="70"/>
-      <c r="CK18" s="70"/>
-      <c r="CL18" s="70"/>
-      <c r="CM18" s="70"/>
-      <c r="CN18" s="64">
+      <c r="CJ18" s="61"/>
+      <c r="CK18" s="61"/>
+      <c r="CL18" s="61"/>
+      <c r="CM18" s="61"/>
+      <c r="CN18" s="62">
         <f t="shared" si="0"/>
         <v>-4.9285714285714164</v>
       </c>
-      <c r="CO18" s="65"/>
-      <c r="CP18" s="65"/>
-      <c r="CQ18" s="65"/>
+      <c r="CO18" s="63"/>
+      <c r="CP18" s="63"/>
+      <c r="CQ18" s="63"/>
       <c r="CR18" s="40"/>
-      <c r="CS18" s="66">
+      <c r="CS18" s="64">
         <f t="shared" si="1"/>
         <v>24.290816326530493</v>
       </c>
-      <c r="CT18" s="67"/>
-      <c r="CU18" s="67"/>
-      <c r="CV18" s="67"/>
+      <c r="CT18" s="65"/>
+      <c r="CU18" s="65"/>
+      <c r="CV18" s="65"/>
       <c r="CW18" s="40"/>
       <c r="DA18" s="19"/>
       <c r="DC18" s="29"/>
@@ -12624,67 +12624,67 @@
     <row r="19" spans="1:128" ht="25" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="17" t="s">
         <v>49</v>
       </c>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
-      <c r="AE19" s="46" t="s">
+      <c r="AE19" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="48"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+      <c r="AH19" s="50"/>
+      <c r="AI19" s="51"/>
       <c r="AJ19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AL19" s="46" t="s">
+      <c r="AL19" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="48"/>
+      <c r="AM19" s="50"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="51"/>
       <c r="BG19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CD19" s="53">
+      <c r="CD19" s="60">
         <v>13</v>
       </c>
-      <c r="CE19" s="53"/>
-      <c r="CF19" s="53"/>
-      <c r="CG19" s="53"/>
-      <c r="CH19" s="53"/>
-      <c r="CI19" s="70">
+      <c r="CE19" s="60"/>
+      <c r="CF19" s="60"/>
+      <c r="CG19" s="60"/>
+      <c r="CH19" s="60"/>
+      <c r="CI19" s="61">
         <v>184</v>
       </c>
-      <c r="CJ19" s="70"/>
-      <c r="CK19" s="70"/>
-      <c r="CL19" s="70"/>
-      <c r="CM19" s="70"/>
-      <c r="CN19" s="64">
+      <c r="CJ19" s="61"/>
+      <c r="CK19" s="61"/>
+      <c r="CL19" s="61"/>
+      <c r="CM19" s="61"/>
+      <c r="CN19" s="62">
         <f t="shared" si="0"/>
         <v>12.071428571428584</v>
       </c>
-      <c r="CO19" s="65"/>
-      <c r="CP19" s="65"/>
-      <c r="CQ19" s="65"/>
+      <c r="CO19" s="63"/>
+      <c r="CP19" s="63"/>
+      <c r="CQ19" s="63"/>
       <c r="CR19" s="40"/>
-      <c r="CS19" s="66">
+      <c r="CS19" s="64">
         <f t="shared" si="1"/>
         <v>145.71938775510233</v>
       </c>
-      <c r="CT19" s="67"/>
-      <c r="CU19" s="67"/>
-      <c r="CV19" s="67"/>
+      <c r="CT19" s="65"/>
+      <c r="CU19" s="65"/>
+      <c r="CV19" s="65"/>
       <c r="CW19" s="40"/>
       <c r="DA19" s="19"/>
       <c r="DB19" s="12"/>
@@ -12740,35 +12740,35 @@
       <c r="CA20" s="21"/>
       <c r="CB20" s="21"/>
       <c r="CC20" s="21"/>
-      <c r="CD20" s="68">
+      <c r="CD20" s="67">
         <v>14</v>
       </c>
-      <c r="CE20" s="68"/>
-      <c r="CF20" s="68"/>
-      <c r="CG20" s="68"/>
-      <c r="CH20" s="68"/>
-      <c r="CI20" s="69">
+      <c r="CE20" s="67"/>
+      <c r="CF20" s="67"/>
+      <c r="CG20" s="67"/>
+      <c r="CH20" s="67"/>
+      <c r="CI20" s="68">
         <v>163</v>
       </c>
-      <c r="CJ20" s="69"/>
-      <c r="CK20" s="69"/>
-      <c r="CL20" s="69"/>
-      <c r="CM20" s="69"/>
-      <c r="CN20" s="64">
+      <c r="CJ20" s="68"/>
+      <c r="CK20" s="68"/>
+      <c r="CL20" s="68"/>
+      <c r="CM20" s="68"/>
+      <c r="CN20" s="62">
         <f t="shared" si="0"/>
         <v>-8.9285714285714164</v>
       </c>
-      <c r="CO20" s="65"/>
-      <c r="CP20" s="65"/>
-      <c r="CQ20" s="65"/>
+      <c r="CO20" s="63"/>
+      <c r="CP20" s="63"/>
+      <c r="CQ20" s="63"/>
       <c r="CR20" s="40"/>
-      <c r="CS20" s="66">
+      <c r="CS20" s="64">
         <f t="shared" si="1"/>
         <v>79.71938775510182</v>
       </c>
-      <c r="CT20" s="67"/>
-      <c r="CU20" s="67"/>
-      <c r="CV20" s="67"/>
+      <c r="CT20" s="65"/>
+      <c r="CU20" s="65"/>
+      <c r="CV20" s="65"/>
       <c r="CW20" s="40"/>
       <c r="CX20" s="21"/>
       <c r="CY20" s="21"/>
@@ -12779,28 +12779,28 @@
       <c r="DX20" s="12"/>
     </row>
     <row r="21" spans="1:128" ht="25" customHeight="1" thickTop="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="F21" s="17" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
       <c r="N21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="O21" s="46" t="s">
+      <c r="O21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="48"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51"/>
       <c r="R21" s="17" t="s">
         <v>54</v>
       </c>
@@ -12813,38 +12813,38 @@
       <c r="AZ21" s="36"/>
       <c r="BY21" s="36"/>
       <c r="BZ21" s="36"/>
-      <c r="CD21" s="60" t="s">
+      <c r="CD21" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="CE21" s="60"/>
-      <c r="CF21" s="60"/>
-      <c r="CG21" s="60"/>
-      <c r="CH21" s="60"/>
-      <c r="CI21" s="61">
+      <c r="CE21" s="78"/>
+      <c r="CF21" s="78"/>
+      <c r="CG21" s="78"/>
+      <c r="CH21" s="78"/>
+      <c r="CI21" s="79">
         <f>SUM(CI7:CM20)</f>
         <v>2407</v>
       </c>
-      <c r="CJ21" s="61"/>
-      <c r="CK21" s="61"/>
-      <c r="CL21" s="61"/>
-      <c r="CM21" s="61"/>
-      <c r="CN21" s="62">
+      <c r="CJ21" s="79"/>
+      <c r="CK21" s="79"/>
+      <c r="CL21" s="79"/>
+      <c r="CM21" s="79"/>
+      <c r="CN21" s="80">
         <f>SUM(CN7:CQ20)</f>
         <v>1.7053025658242404E-13</v>
       </c>
-      <c r="CO21" s="63"/>
-      <c r="CP21" s="63"/>
-      <c r="CQ21" s="63"/>
+      <c r="CO21" s="81"/>
+      <c r="CP21" s="81"/>
+      <c r="CQ21" s="81"/>
       <c r="CR21" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="CS21" s="51">
+      <c r="CS21" s="70">
         <f>SUM(CS7:CV20)</f>
         <v>926.92857142857144</v>
       </c>
-      <c r="CT21" s="52"/>
-      <c r="CU21" s="52"/>
-      <c r="CV21" s="52"/>
+      <c r="CT21" s="71"/>
+      <c r="CU21" s="71"/>
+      <c r="CV21" s="71"/>
       <c r="CW21" s="41" t="s">
         <v>112</v>
       </c>
@@ -12866,43 +12866,43 @@
       </c>
       <c r="AY22" s="36"/>
       <c r="AZ22" s="36"/>
-      <c r="BA22" s="50" t="s">
+      <c r="BA22" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="56"/>
       <c r="BD22" s="1" t="s">
         <v>184</v>
       </c>
       <c r="BY22" s="36"/>
       <c r="BZ22" s="36"/>
-      <c r="CD22" s="53" t="s">
+      <c r="CD22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="CE22" s="53"/>
-      <c r="CF22" s="53"/>
-      <c r="CG22" s="53"/>
-      <c r="CH22" s="53"/>
+      <c r="CE22" s="60"/>
+      <c r="CF22" s="60"/>
+      <c r="CG22" s="60"/>
+      <c r="CH22" s="60"/>
       <c r="CI22" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="CJ22" s="54">
+      <c r="CJ22" s="72">
         <f>AVERAGE(CI7:CM20)</f>
         <v>171.92857142857142</v>
       </c>
-      <c r="CK22" s="54"/>
-      <c r="CL22" s="54"/>
-      <c r="CM22" s="55"/>
-      <c r="CN22" s="56"/>
-      <c r="CO22" s="57"/>
-      <c r="CP22" s="57"/>
-      <c r="CQ22" s="57"/>
-      <c r="CR22" s="58"/>
-      <c r="CS22" s="59"/>
-      <c r="CT22" s="59"/>
-      <c r="CU22" s="59"/>
-      <c r="CV22" s="59"/>
-      <c r="CW22" s="59"/>
+      <c r="CK22" s="72"/>
+      <c r="CL22" s="72"/>
+      <c r="CM22" s="73"/>
+      <c r="CN22" s="74"/>
+      <c r="CO22" s="75"/>
+      <c r="CP22" s="75"/>
+      <c r="CQ22" s="75"/>
+      <c r="CR22" s="76"/>
+      <c r="CS22" s="77"/>
+      <c r="CT22" s="77"/>
+      <c r="CU22" s="77"/>
+      <c r="CV22" s="77"/>
+      <c r="CW22" s="77"/>
       <c r="CX22" s="22"/>
       <c r="CY22" s="22"/>
       <c r="CZ22" s="22"/>
@@ -12912,23 +12912,23 @@
       <c r="DX22" s="12"/>
     </row>
     <row r="23" spans="1:128" ht="25" customHeight="1">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
-      <c r="AF23" s="46" t="s">
+      <c r="AF23" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="48"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="50"/>
+      <c r="AJ23" s="51"/>
       <c r="AL23" s="1" t="s">
         <v>81</v>
       </c>
@@ -12948,13 +12948,13 @@
       </c>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
-      <c r="AF24" s="46" t="s">
+      <c r="AF24" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="48"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="50"/>
+      <c r="AJ24" s="51"/>
       <c r="AL24" s="1" t="s">
         <v>148</v>
       </c>
@@ -12970,16 +12970,16 @@
       <c r="CE24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="CL24" s="43">
+      <c r="CL24" s="69">
         <f>CJ22</f>
         <v>171.92857142857142</v>
       </c>
-      <c r="CM24" s="44"/>
-      <c r="CN24" s="44"/>
-      <c r="CO24" s="44"/>
-      <c r="CP24" s="44"/>
-      <c r="CQ24" s="44"/>
-      <c r="CR24" s="45"/>
+      <c r="CM24" s="53"/>
+      <c r="CN24" s="53"/>
+      <c r="CO24" s="53"/>
+      <c r="CP24" s="53"/>
+      <c r="CQ24" s="53"/>
+      <c r="CR24" s="54"/>
       <c r="DA24" s="19"/>
       <c r="DC24" s="11"/>
       <c r="DX24" s="12"/>
@@ -12991,13 +12991,13 @@
       <c r="G25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AF25" s="46" t="s">
+      <c r="AF25" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="48"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="50"/>
+      <c r="AJ25" s="51"/>
       <c r="AL25" s="1" t="s">
         <v>93</v>
       </c>
@@ -13021,16 +13021,16 @@
       <c r="CI25" s="22"/>
       <c r="CJ25" s="22"/>
       <c r="CK25" s="22"/>
-      <c r="CL25" s="43">
+      <c r="CL25" s="69">
         <f>CN8</f>
         <v>2.0714285714285836</v>
       </c>
-      <c r="CM25" s="44"/>
-      <c r="CN25" s="44"/>
-      <c r="CO25" s="44"/>
-      <c r="CP25" s="44"/>
-      <c r="CQ25" s="44"/>
-      <c r="CR25" s="45"/>
+      <c r="CM25" s="53"/>
+      <c r="CN25" s="53"/>
+      <c r="CO25" s="53"/>
+      <c r="CP25" s="53"/>
+      <c r="CQ25" s="53"/>
+      <c r="CR25" s="54"/>
       <c r="CS25" s="22"/>
       <c r="CT25" s="22"/>
       <c r="CU25" s="22"/>
@@ -13050,13 +13050,13 @@
       <c r="G26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AF26" s="46" t="s">
+      <c r="AF26" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="48"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="50"/>
+      <c r="AJ26" s="51"/>
       <c r="AL26" s="1" t="s">
         <v>89</v>
       </c>
@@ -13080,16 +13080,16 @@
       <c r="CI26" s="22"/>
       <c r="CJ26" s="22"/>
       <c r="CK26" s="22"/>
-      <c r="CL26" s="43">
+      <c r="CL26" s="69">
         <f>CN12</f>
         <v>7.0714285714285836</v>
       </c>
-      <c r="CM26" s="44"/>
-      <c r="CN26" s="44"/>
-      <c r="CO26" s="44"/>
-      <c r="CP26" s="44"/>
-      <c r="CQ26" s="44"/>
-      <c r="CR26" s="45"/>
+      <c r="CM26" s="53"/>
+      <c r="CN26" s="53"/>
+      <c r="CO26" s="53"/>
+      <c r="CP26" s="53"/>
+      <c r="CQ26" s="53"/>
+      <c r="CR26" s="54"/>
       <c r="CS26" s="22"/>
       <c r="CT26" s="22"/>
       <c r="CU26" s="22"/>
@@ -13109,13 +13109,13 @@
       <c r="AF27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AK27" s="46" t="s">
+      <c r="AK27" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="48"/>
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="50"/>
+      <c r="AN27" s="50"/>
+      <c r="AO27" s="51"/>
       <c r="AP27" s="1" t="s">
         <v>151</v>
       </c>
@@ -13128,16 +13128,16 @@
       <c r="CE27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="CL27" s="43">
+      <c r="CL27" s="69">
         <f>CN16</f>
         <v>-3.9285714285714164</v>
       </c>
-      <c r="CM27" s="44"/>
-      <c r="CN27" s="44"/>
-      <c r="CO27" s="44"/>
-      <c r="CP27" s="44"/>
-      <c r="CQ27" s="44"/>
-      <c r="CR27" s="45"/>
+      <c r="CM27" s="53"/>
+      <c r="CN27" s="53"/>
+      <c r="CO27" s="53"/>
+      <c r="CP27" s="53"/>
+      <c r="CQ27" s="53"/>
+      <c r="CR27" s="54"/>
       <c r="DA27" s="19"/>
       <c r="DC27" s="11"/>
       <c r="DX27" s="12"/>
@@ -13156,24 +13156,24 @@
       <c r="CE28" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="CL28" s="43">
+      <c r="CL28" s="69">
         <f>CN21</f>
         <v>1.7053025658242404E-13</v>
       </c>
-      <c r="CM28" s="44"/>
-      <c r="CN28" s="44"/>
-      <c r="CO28" s="44"/>
-      <c r="CP28" s="44"/>
-      <c r="CQ28" s="44"/>
-      <c r="CR28" s="45"/>
+      <c r="CM28" s="53"/>
+      <c r="CN28" s="53"/>
+      <c r="CO28" s="53"/>
+      <c r="CP28" s="53"/>
+      <c r="CQ28" s="53"/>
+      <c r="CR28" s="54"/>
       <c r="DA28" s="19"/>
       <c r="DC28" s="11"/>
       <c r="DX28" s="12"/>
     </row>
     <row r="29" spans="1:128" ht="25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="G29" s="17" t="s">
         <v>61</v>
       </c>
@@ -13235,16 +13235,16 @@
       <c r="CE29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="CL29" s="43">
+      <c r="CL29" s="69">
         <f>CS9</f>
         <v>142.29081632653032</v>
       </c>
-      <c r="CM29" s="44"/>
-      <c r="CN29" s="44"/>
-      <c r="CO29" s="44"/>
-      <c r="CP29" s="44"/>
-      <c r="CQ29" s="44"/>
-      <c r="CR29" s="45"/>
+      <c r="CM29" s="53"/>
+      <c r="CN29" s="53"/>
+      <c r="CO29" s="53"/>
+      <c r="CP29" s="53"/>
+      <c r="CQ29" s="53"/>
+      <c r="CR29" s="54"/>
       <c r="DA29" s="19"/>
       <c r="DC29" s="11"/>
       <c r="DX29" s="12"/>
@@ -13263,16 +13263,16 @@
       <c r="CE30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="CL30" s="43">
+      <c r="CL30" s="69">
         <f>CS15</f>
         <v>142.29081632653032</v>
       </c>
-      <c r="CM30" s="44"/>
-      <c r="CN30" s="44"/>
-      <c r="CO30" s="44"/>
-      <c r="CP30" s="44"/>
-      <c r="CQ30" s="44"/>
-      <c r="CR30" s="45"/>
+      <c r="CM30" s="53"/>
+      <c r="CN30" s="53"/>
+      <c r="CO30" s="53"/>
+      <c r="CP30" s="53"/>
+      <c r="CQ30" s="53"/>
+      <c r="CR30" s="54"/>
       <c r="DA30" s="19"/>
       <c r="DC30" s="11"/>
       <c r="DX30" s="12"/>
@@ -13288,16 +13288,16 @@
       <c r="CE31" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="CL31" s="43">
+      <c r="CL31" s="69">
         <f>CS21</f>
         <v>926.92857142857144</v>
       </c>
-      <c r="CM31" s="44"/>
-      <c r="CN31" s="44"/>
-      <c r="CO31" s="44"/>
-      <c r="CP31" s="44"/>
-      <c r="CQ31" s="44"/>
-      <c r="CR31" s="45"/>
+      <c r="CM31" s="53"/>
+      <c r="CN31" s="53"/>
+      <c r="CO31" s="53"/>
+      <c r="CP31" s="53"/>
+      <c r="CQ31" s="53"/>
+      <c r="CR31" s="54"/>
       <c r="DA31" s="19"/>
       <c r="DC31" s="30"/>
       <c r="DD31" s="6"/>
@@ -13588,6 +13588,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="CS22:CW22"/>
+    <mergeCell ref="CL30:CR30"/>
+    <mergeCell ref="CL31:CR31"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="AL19:AP19"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="AF25:AJ25"/>
+    <mergeCell ref="AF26:AJ26"/>
+    <mergeCell ref="AK27:AO27"/>
+    <mergeCell ref="BE3:BI3"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="BE6:BI6"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BO8:BS8"/>
+    <mergeCell ref="CN8:CQ8"/>
+    <mergeCell ref="CN9:CQ9"/>
+    <mergeCell ref="CL24:CR24"/>
+    <mergeCell ref="CL25:CR25"/>
+    <mergeCell ref="CL26:CR26"/>
+    <mergeCell ref="CL27:CR27"/>
+    <mergeCell ref="CL28:CR28"/>
+    <mergeCell ref="CL29:CR29"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="CJ22:CM22"/>
+    <mergeCell ref="BA22:BC22"/>
+    <mergeCell ref="CN16:CQ16"/>
+    <mergeCell ref="CN17:CQ17"/>
+    <mergeCell ref="CN18:CQ18"/>
+    <mergeCell ref="CN20:CQ20"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="BA11:BC11"/>
+    <mergeCell ref="CS19:CV19"/>
+    <mergeCell ref="CS20:CV20"/>
+    <mergeCell ref="CN10:CQ10"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="CD20:CH20"/>
+    <mergeCell ref="CI21:CM21"/>
+    <mergeCell ref="CD22:CH22"/>
+    <mergeCell ref="CN22:CR22"/>
+    <mergeCell ref="CN19:CQ19"/>
+    <mergeCell ref="CN21:CQ21"/>
+    <mergeCell ref="CI13:CM13"/>
+    <mergeCell ref="CD14:CH14"/>
+    <mergeCell ref="CI14:CM14"/>
+    <mergeCell ref="CD15:CH15"/>
+    <mergeCell ref="CI15:CM15"/>
+    <mergeCell ref="CN13:CQ13"/>
+    <mergeCell ref="CS14:CV14"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="CD8:CH8"/>
+    <mergeCell ref="CI8:CM8"/>
+    <mergeCell ref="CD9:CH9"/>
+    <mergeCell ref="CI9:CM9"/>
+    <mergeCell ref="CN11:CQ11"/>
+    <mergeCell ref="CN12:CQ12"/>
+    <mergeCell ref="CN14:CQ14"/>
+    <mergeCell ref="CN15:CQ15"/>
+    <mergeCell ref="CD11:CH11"/>
+    <mergeCell ref="CI11:CM11"/>
+    <mergeCell ref="CD12:CH12"/>
+    <mergeCell ref="CI12:CM12"/>
+    <mergeCell ref="CS10:CV10"/>
+    <mergeCell ref="CS11:CV11"/>
+    <mergeCell ref="CS12:CV12"/>
+    <mergeCell ref="CS9:CV9"/>
+    <mergeCell ref="CS21:CV21"/>
+    <mergeCell ref="CS13:CV13"/>
+    <mergeCell ref="CS17:CV17"/>
+    <mergeCell ref="CS16:CV16"/>
+    <mergeCell ref="CI20:CM20"/>
+    <mergeCell ref="CD21:CH21"/>
+    <mergeCell ref="CD19:CH19"/>
+    <mergeCell ref="CI19:CM19"/>
+    <mergeCell ref="CD16:CH16"/>
+    <mergeCell ref="CI16:CM16"/>
+    <mergeCell ref="CD17:CH17"/>
+    <mergeCell ref="CI17:CM17"/>
+    <mergeCell ref="CD18:CH18"/>
+    <mergeCell ref="CI18:CM18"/>
+    <mergeCell ref="CS18:CV18"/>
+    <mergeCell ref="CD13:CH13"/>
     <mergeCell ref="CS8:CV8"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A17:C17"/>
@@ -13612,105 +13705,12 @@
     <mergeCell ref="CS15:CV15"/>
     <mergeCell ref="CD10:CH10"/>
     <mergeCell ref="CI10:CM10"/>
-    <mergeCell ref="CD11:CH11"/>
-    <mergeCell ref="CI11:CM11"/>
-    <mergeCell ref="CD12:CH12"/>
-    <mergeCell ref="CI12:CM12"/>
-    <mergeCell ref="CS10:CV10"/>
-    <mergeCell ref="CS11:CV11"/>
-    <mergeCell ref="CS12:CV12"/>
-    <mergeCell ref="CS9:CV9"/>
-    <mergeCell ref="CS21:CV21"/>
-    <mergeCell ref="CS13:CV13"/>
-    <mergeCell ref="CS17:CV17"/>
-    <mergeCell ref="CS16:CV16"/>
-    <mergeCell ref="CI20:CM20"/>
-    <mergeCell ref="CD21:CH21"/>
-    <mergeCell ref="CD19:CH19"/>
-    <mergeCell ref="CI19:CM19"/>
-    <mergeCell ref="CD16:CH16"/>
-    <mergeCell ref="CI16:CM16"/>
-    <mergeCell ref="CD17:CH17"/>
-    <mergeCell ref="CI17:CM17"/>
-    <mergeCell ref="CD18:CH18"/>
-    <mergeCell ref="CI18:CM18"/>
-    <mergeCell ref="CS18:CV18"/>
-    <mergeCell ref="CD13:CH13"/>
-    <mergeCell ref="CI13:CM13"/>
-    <mergeCell ref="CD14:CH14"/>
-    <mergeCell ref="CI14:CM14"/>
-    <mergeCell ref="CD15:CH15"/>
-    <mergeCell ref="CI15:CM15"/>
-    <mergeCell ref="CN13:CQ13"/>
-    <mergeCell ref="CS14:CV14"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="CD20:CH20"/>
-    <mergeCell ref="CI21:CM21"/>
-    <mergeCell ref="CD22:CH22"/>
-    <mergeCell ref="CN22:CR22"/>
-    <mergeCell ref="CN19:CQ19"/>
-    <mergeCell ref="CN21:CQ21"/>
-    <mergeCell ref="CD8:CH8"/>
-    <mergeCell ref="CI8:CM8"/>
-    <mergeCell ref="CD9:CH9"/>
-    <mergeCell ref="CI9:CM9"/>
-    <mergeCell ref="CN11:CQ11"/>
-    <mergeCell ref="CN12:CQ12"/>
-    <mergeCell ref="CN14:CQ14"/>
-    <mergeCell ref="CN15:CQ15"/>
-    <mergeCell ref="CN16:CQ16"/>
-    <mergeCell ref="CN17:CQ17"/>
-    <mergeCell ref="CN18:CQ18"/>
-    <mergeCell ref="CN20:CQ20"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="BA11:BC11"/>
-    <mergeCell ref="CS19:CV19"/>
-    <mergeCell ref="CS20:CV20"/>
-    <mergeCell ref="CL24:CR24"/>
-    <mergeCell ref="CL25:CR25"/>
-    <mergeCell ref="CL26:CR26"/>
-    <mergeCell ref="CL27:CR27"/>
-    <mergeCell ref="CL28:CR28"/>
-    <mergeCell ref="CL29:CR29"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="CJ22:CM22"/>
-    <mergeCell ref="BA22:BC22"/>
-    <mergeCell ref="CS22:CW22"/>
-    <mergeCell ref="CL30:CR30"/>
-    <mergeCell ref="CL31:CR31"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AF6:AJ6"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="AL19:AP19"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AF25:AJ25"/>
-    <mergeCell ref="AF26:AJ26"/>
-    <mergeCell ref="AK27:AO27"/>
-    <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="BE6:BI6"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BO8:BS8"/>
-    <mergeCell ref="CN8:CQ8"/>
-    <mergeCell ref="CN9:CQ9"/>
-    <mergeCell ref="CN10:CQ10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.6" right="0.6" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
+  <pageMargins left="0.6" right="0.6" top="0.3" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L2023/10/02&amp;C&amp;"メイリオ,Regular"&amp;16&amp;A&amp;R&amp;"メイリオ,Regular"（担当：YOH）</oddHeader>
+    <oddHeader>&amp;L2023/10/03&amp;C&amp;"メイリオ,Regular"&amp;16&amp;A&amp;R&amp;"メイリオ,Regular"（担当：YOH）</oddHeader>
     <oddFooter>&amp;R&amp;P / &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
@@ -17577,6 +17577,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17628,12 +17629,12 @@
     <row r="2" spans="1:76" ht="25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="23" t="s">
         <v>39</v>
       </c>
@@ -17656,44 +17657,44 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="19"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
       <c r="BA2" s="19"/>
-      <c r="BC2" s="73" t="s">
+      <c r="BC2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="BD2" s="74"/>
-      <c r="BE2" s="74"/>
-      <c r="BF2" s="74"/>
-      <c r="BG2" s="74"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="74"/>
-      <c r="BJ2" s="74"/>
-      <c r="BK2" s="74"/>
-      <c r="BL2" s="74"/>
-      <c r="BM2" s="74"/>
-      <c r="BN2" s="74"/>
-      <c r="BO2" s="74"/>
-      <c r="BP2" s="74"/>
-      <c r="BQ2" s="74"/>
-      <c r="BR2" s="74"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="74"/>
-      <c r="BU2" s="74"/>
-      <c r="BV2" s="74"/>
-      <c r="BW2" s="74"/>
-      <c r="BX2" s="75"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="45"/>
     </row>
     <row r="3" spans="1:76" ht="25" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="77"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
@@ -17725,36 +17726,36 @@
       <c r="AK3" s="37"/>
       <c r="AL3" s="37"/>
       <c r="BA3" s="19"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="79"/>
-      <c r="BF3" s="79"/>
-      <c r="BG3" s="79"/>
-      <c r="BH3" s="79"/>
-      <c r="BI3" s="79"/>
-      <c r="BJ3" s="79"/>
-      <c r="BK3" s="79"/>
-      <c r="BL3" s="79"/>
-      <c r="BM3" s="79"/>
-      <c r="BN3" s="79"/>
-      <c r="BO3" s="79"/>
-      <c r="BP3" s="79"/>
-      <c r="BQ3" s="79"/>
-      <c r="BR3" s="79"/>
-      <c r="BS3" s="79"/>
-      <c r="BT3" s="79"/>
-      <c r="BU3" s="79"/>
-      <c r="BV3" s="79"/>
-      <c r="BW3" s="79"/>
-      <c r="BX3" s="80"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="47"/>
+      <c r="BG3" s="47"/>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="47"/>
+      <c r="BT3" s="47"/>
+      <c r="BU3" s="47"/>
+      <c r="BV3" s="47"/>
+      <c r="BW3" s="47"/>
+      <c r="BX3" s="48"/>
     </row>
     <row r="4" spans="1:76" ht="25" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="24" t="s">
         <v>40</v>
       </c>
@@ -17840,11 +17841,11 @@
       <c r="BX5" s="5"/>
     </row>
     <row r="6" spans="1:76" ht="25" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -18282,9 +18283,9 @@
       <c r="BX16" s="5"/>
     </row>
     <row r="17" spans="1:76" ht="25" customHeight="1" thickBot="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -18478,9 +18479,9 @@
       <c r="BX20" s="12"/>
     </row>
     <row r="21" spans="1:76" ht="25" customHeight="1">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
@@ -18716,9 +18717,9 @@
       <c r="BX28" s="12"/>
     </row>
     <row r="29" spans="1:76" ht="25" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
